--- a/samples/Classification_iris_flower_set/mainTest.xlsx
+++ b/samples/Classification_iris_flower_set/mainTest.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18528"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18827"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="21">
   <si>
     <t>SEED</t>
   </si>
@@ -55,6 +55,33 @@
   </si>
   <si>
     <t>LEARNING</t>
+  </si>
+  <si>
+    <t>i1rescalled</t>
+  </si>
+  <si>
+    <t>i2rescalled</t>
+  </si>
+  <si>
+    <t>i3rescalled</t>
+  </si>
+  <si>
+    <t>i4rescalled</t>
+  </si>
+  <si>
+    <t>o1rescalled</t>
+  </si>
+  <si>
+    <t>o2rescalled</t>
+  </si>
+  <si>
+    <t>o3rescalled</t>
+  </si>
+  <si>
+    <t>iomax</t>
+  </si>
+  <si>
+    <t>iomin</t>
   </si>
 </sst>
 </file>
@@ -155,7 +182,28 @@
     <cellStyle name="Neutral" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="16">
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
@@ -197,24 +245,45 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1C5FEFDB-8ABD-4C72-AE3E-E84EAA6F550B}" name="Table1" displayName="Table1" ref="A1:J151" totalsRowShown="0" headerRowCellStyle="Bad">
-  <autoFilter ref="A1:J151" xr:uid="{95E788EB-DA94-40E7-9DA5-7037ABDFB760}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1C5FEFDB-8ABD-4C72-AE3E-E84EAA6F550B}" name="Table1" displayName="Table1" ref="A1:Q151" totalsRowShown="0" headerRowCellStyle="Bad">
+  <autoFilter ref="A1:Q151" xr:uid="{95E788EB-DA94-40E7-9DA5-7037ABDFB760}"/>
   <sortState ref="A2:I151">
     <sortCondition ref="H1:H151"/>
   </sortState>
-  <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{7951877C-BF1C-4F7C-96E5-A29720B2A1D4}" name="i1" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{F7FE5325-5E38-49E6-98A1-37A0B35B3C47}" name="i2" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{13C5DC25-2297-4DA2-A18B-DF7B250FA12E}" name="i3" dataDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{73DAFC61-CC8B-45C1-960E-0A3BC7EFD69B}" name="i4" dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{16F08D1B-AD9E-4D97-AD9C-B1D05FE383B0}" name="o1" dataDxfId="4"/>
-    <tableColumn id="6" xr3:uid="{FF1F2CDD-1D3D-436A-98B9-EB5C7CD84800}" name="o2" dataDxfId="3"/>
-    <tableColumn id="7" xr3:uid="{E28863C1-8882-44C6-B9B5-732C25E8F017}" name="o3" dataDxfId="2"/>
+  <tableColumns count="17">
+    <tableColumn id="1" xr3:uid="{7951877C-BF1C-4F7C-96E5-A29720B2A1D4}" name="i1" dataDxfId="15"/>
+    <tableColumn id="2" xr3:uid="{F7FE5325-5E38-49E6-98A1-37A0B35B3C47}" name="i2" dataDxfId="14"/>
+    <tableColumn id="3" xr3:uid="{13C5DC25-2297-4DA2-A18B-DF7B250FA12E}" name="i3" dataDxfId="13"/>
+    <tableColumn id="4" xr3:uid="{73DAFC61-CC8B-45C1-960E-0A3BC7EFD69B}" name="i4" dataDxfId="12"/>
+    <tableColumn id="5" xr3:uid="{16F08D1B-AD9E-4D97-AD9C-B1D05FE383B0}" name="o1" dataDxfId="11"/>
+    <tableColumn id="6" xr3:uid="{FF1F2CDD-1D3D-436A-98B9-EB5C7CD84800}" name="o2" dataDxfId="10"/>
+    <tableColumn id="7" xr3:uid="{E28863C1-8882-44C6-B9B5-732C25E8F017}" name="o3" dataDxfId="9"/>
     <tableColumn id="8" xr3:uid="{E2C19E5F-376A-4331-BB12-6AB87BEA9D8C}" name="SEED">
       <calculatedColumnFormula>RAND()</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{472BB0DA-1355-420D-8D1E-CB7FB951BA98}" name="NUMBER" dataDxfId="1"/>
-    <tableColumn id="10" xr3:uid="{9611CBA6-B485-4274-84AA-766BD3F88790}" name="USAGE" dataDxfId="0"/>
+    <tableColumn id="9" xr3:uid="{472BB0DA-1355-420D-8D1E-CB7FB951BA98}" name="NUMBER" dataDxfId="8"/>
+    <tableColumn id="10" xr3:uid="{9611CBA6-B485-4274-84AA-766BD3F88790}" name="USAGE" dataDxfId="7"/>
+    <tableColumn id="11" xr3:uid="{215AC0F4-E8FE-4CD7-9001-F34C1DB37A6A}" name="i1rescalled" dataDxfId="6">
+      <calculatedColumnFormula>(A2-MIN($A:$H))/(MAX($A:$H)-MIN($A:$H))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="12" xr3:uid="{5C0F84DE-501A-4ECD-A359-0D9E02933A37}" name="i2rescalled" dataDxfId="5">
+      <calculatedColumnFormula>(B2-MIN($A:$H))/(MAX($A:$H)-MIN($A:$H))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="13" xr3:uid="{714DF913-7201-460E-AE54-F31A1B9F3C4D}" name="i3rescalled" dataDxfId="4">
+      <calculatedColumnFormula>(C2-MIN($A:$H))/(MAX($A:$H)-MIN($A:$H))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="14" xr3:uid="{F2F491CF-4888-41B1-B19D-B897DF5F50E7}" name="i4rescalled" dataDxfId="3">
+      <calculatedColumnFormula>(D2-MIN($A:$H))/(MAX($A:$H)-MIN($A:$H))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="15" xr3:uid="{3E2BB7A0-CD6A-4C2B-9D5A-7D87668D4F67}" name="o1rescalled" dataDxfId="2">
+      <calculatedColumnFormula>(E2-MIN($A:$H))/(MAX($A:$H)-MIN($A:$H))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="16" xr3:uid="{2B317211-6DB3-46FF-9BCB-CEF0D011928C}" name="o2rescalled" dataDxfId="1">
+      <calculatedColumnFormula>(F2-MIN($A:$H))/(MAX($A:$H)-MIN($A:$H))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="17" xr3:uid="{9ACE8F93-7E15-48CC-A148-BD856CC9141B}" name="o3rescalled" dataDxfId="0">
+      <calculatedColumnFormula>(G2-MIN($A:$H))/(MAX($A:$H)-MIN($A:$H))</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -483,18 +552,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J151"/>
+  <dimension ref="A1:T151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="O114" sqref="O114"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="P56" sqref="P56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="10" max="10" width="10.5703125" customWidth="1"/>
+    <col min="10" max="10" width="13.85546875" customWidth="1"/>
+    <col min="11" max="11" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -525,8 +598,29 @@
       <c r="J1" s="9" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>6.1</v>
       </c>
@@ -549,8 +643,8 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <f ca="1">RAND()</f>
-        <v>0.42414444485708935</v>
+        <f t="shared" ref="H2:H33" ca="1" si="0">RAND()</f>
+        <v>0.94910441479848562</v>
       </c>
       <c r="I2" s="6">
         <v>128</v>
@@ -558,8 +652,36 @@
       <c r="J2" s="7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K2" s="1">
+        <f t="shared" ref="K2:L33" ca="1" si="1">(A2-MIN($A:$H))/(MAX($A:$H)-MIN($A:$H))</f>
+        <v>0.77215189873417711</v>
+      </c>
+      <c r="L2" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.37974683544303794</v>
+      </c>
+      <c r="M2" s="1">
+        <f t="shared" ref="M2:M65" ca="1" si="2">(C2-MIN($A:$H))/(MAX($A:$H)-MIN($A:$H))</f>
+        <v>0.620253164556962</v>
+      </c>
+      <c r="N2" s="1">
+        <f t="shared" ref="N2:N65" ca="1" si="3">(D2-MIN($A:$H))/(MAX($A:$H)-MIN($A:$H))</f>
+        <v>0.22784810126582278</v>
+      </c>
+      <c r="O2" s="1">
+        <f t="shared" ref="O2:O65" ca="1" si="4">(E2-MIN($A:$H))/(MAX($A:$H)-MIN($A:$H))</f>
+        <v>0.12658227848101264</v>
+      </c>
+      <c r="P2" s="1">
+        <f t="shared" ref="P2:P65" ca="1" si="5">(F2-MIN($A:$H))/(MAX($A:$H)-MIN($A:$H))</f>
+        <v>0</v>
+      </c>
+      <c r="Q2" s="1">
+        <f t="shared" ref="Q2:Q65" ca="1" si="6">(G2-MIN($A:$H))/(MAX($A:$H)-MIN($A:$H))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>5.2</v>
       </c>
@@ -582,8 +704,8 @@
         <v>1</v>
       </c>
       <c r="H3">
-        <f ca="1">RAND()</f>
-        <v>0.23242842725273027</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.83032418490604387</v>
       </c>
       <c r="I3" s="6">
         <v>28</v>
@@ -591,8 +713,43 @@
       <c r="J3" s="7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K3" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.65822784810126578</v>
+      </c>
+      <c r="L3" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.44303797468354428</v>
+      </c>
+      <c r="M3" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.18987341772151897</v>
+      </c>
+      <c r="N3" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>2.5316455696202531E-2</v>
+      </c>
+      <c r="O3" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P3" s="1">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q3" s="1">
+        <f t="shared" ca="1" si="6"/>
+        <v>0.12658227848101264</v>
+      </c>
+      <c r="S3" t="s">
+        <v>19</v>
+      </c>
+      <c r="T3">
+        <f>MAX(A:G)</f>
+        <v>7.9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>4.9000000000000004</v>
       </c>
@@ -615,8 +772,8 @@
         <v>1</v>
       </c>
       <c r="H4">
-        <f ca="1">RAND()</f>
-        <v>0.68309862492784557</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.16022795858536565</v>
       </c>
       <c r="I4" s="6">
         <v>2</v>
@@ -624,8 +781,43 @@
       <c r="J4" s="7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K4" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.620253164556962</v>
+      </c>
+      <c r="L4" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.37974683544303794</v>
+      </c>
+      <c r="M4" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.17721518987341769</v>
+      </c>
+      <c r="N4" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>2.5316455696202531E-2</v>
+      </c>
+      <c r="O4" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P4" s="1">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q4" s="1">
+        <f t="shared" ca="1" si="6"/>
+        <v>0.12658227848101264</v>
+      </c>
+      <c r="S4" t="s">
+        <v>20</v>
+      </c>
+      <c r="T4">
+        <f>MIN(A:G)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>6.3</v>
       </c>
@@ -648,8 +840,8 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <f ca="1">RAND()</f>
-        <v>9.1561256915463796E-2</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.25910049143920466</v>
       </c>
       <c r="I5" s="6">
         <v>73</v>
@@ -657,8 +849,36 @@
       <c r="J5" s="7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K5" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.79746835443037967</v>
+      </c>
+      <c r="L5" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.31645569620253161</v>
+      </c>
+      <c r="M5" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.620253164556962</v>
+      </c>
+      <c r="N5" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.18987341772151897</v>
+      </c>
+      <c r="O5" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P5" s="1">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.12658227848101264</v>
+      </c>
+      <c r="Q5" s="1">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -681,8 +901,8 @@
         <v>1</v>
       </c>
       <c r="H6">
-        <f ca="1">RAND()</f>
-        <v>0.48773362028631873</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.12092274647760359</v>
       </c>
       <c r="I6" s="6">
         <v>44</v>
@@ -690,8 +910,36 @@
       <c r="J6" s="7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K6" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.63291139240506322</v>
+      </c>
+      <c r="L6" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.44303797468354428</v>
+      </c>
+      <c r="M6" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.20253164556962025</v>
+      </c>
+      <c r="N6" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>7.5949367088607583E-2</v>
+      </c>
+      <c r="O6" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P6" s="1">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q6" s="1">
+        <f t="shared" ca="1" si="6"/>
+        <v>0.12658227848101264</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6.7</v>
       </c>
@@ -714,8 +962,8 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <f ca="1">RAND()</f>
-        <v>0.99681394039317472</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.64574677586943863</v>
       </c>
       <c r="I7" s="6">
         <v>146</v>
@@ -723,8 +971,36 @@
       <c r="J7" s="8" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K7" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.84810126582278478</v>
+      </c>
+      <c r="L7" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.37974683544303794</v>
+      </c>
+      <c r="M7" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.65822784810126578</v>
+      </c>
+      <c r="N7" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.29113924050632906</v>
+      </c>
+      <c r="O7" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>0.12658227848101264</v>
+      </c>
+      <c r="P7" s="1">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q7" s="1">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -747,8 +1023,8 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <f ca="1">RAND()</f>
-        <v>0.91091960236885938</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.97287886782557065</v>
       </c>
       <c r="I8" s="6">
         <v>120</v>
@@ -756,8 +1032,36 @@
       <c r="J8" s="8" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K8" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.75949367088607589</v>
+      </c>
+      <c r="L8" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.27848101265822783</v>
+      </c>
+      <c r="M8" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.63291139240506322</v>
+      </c>
+      <c r="N8" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.18987341772151897</v>
+      </c>
+      <c r="O8" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>0.12658227848101264</v>
+      </c>
+      <c r="P8" s="1">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q8" s="1">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>6.3</v>
       </c>
@@ -780,8 +1084,8 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <f ca="1">RAND()</f>
-        <v>0.99105032934713932</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>5.3343970026050846E-2</v>
       </c>
       <c r="I9" s="6">
         <v>88</v>
@@ -789,8 +1093,36 @@
       <c r="J9" s="8" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K9" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.79746835443037967</v>
+      </c>
+      <c r="L9" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.29113924050632906</v>
+      </c>
+      <c r="M9" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.55696202531645567</v>
+      </c>
+      <c r="N9" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.16455696202531644</v>
+      </c>
+      <c r="O9" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P9" s="1">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.12658227848101264</v>
+      </c>
+      <c r="Q9" s="1">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>7.7</v>
       </c>
@@ -813,8 +1145,8 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <f ca="1">RAND()</f>
-        <v>0.83807613512556833</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.97072048506110009</v>
       </c>
       <c r="I10" s="6">
         <v>119</v>
@@ -822,8 +1154,36 @@
       <c r="J10" s="8" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K10" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.97468354430379744</v>
+      </c>
+      <c r="L10" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.32911392405063289</v>
+      </c>
+      <c r="M10" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.87341772151898733</v>
+      </c>
+      <c r="N10" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.29113924050632906</v>
+      </c>
+      <c r="O10" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>0.12658227848101264</v>
+      </c>
+      <c r="P10" s="1">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q10" s="1">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>7.7</v>
       </c>
@@ -846,8 +1206,8 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <f ca="1">RAND()</f>
-        <v>0.3160084274929208</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.20625930394491476</v>
       </c>
       <c r="I11" s="6">
         <v>123</v>
@@ -855,8 +1215,36 @@
       <c r="J11" s="8" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K11" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.97468354430379744</v>
+      </c>
+      <c r="L11" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.35443037974683539</v>
+      </c>
+      <c r="M11" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.84810126582278478</v>
+      </c>
+      <c r="N11" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.25316455696202528</v>
+      </c>
+      <c r="O11" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>0.12658227848101264</v>
+      </c>
+      <c r="P11" s="1">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q11" s="1">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>5</v>
       </c>
@@ -879,8 +1267,8 @@
         <v>1</v>
       </c>
       <c r="H12">
-        <f ca="1">RAND()</f>
-        <v>0.12910326223534641</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.31847378165008577</v>
       </c>
       <c r="I12" s="6">
         <v>36</v>
@@ -888,8 +1276,36 @@
       <c r="J12" s="8" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K12" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.63291139240506322</v>
+      </c>
+      <c r="L12" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.4050632911392405</v>
+      </c>
+      <c r="M12" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.15189873417721517</v>
+      </c>
+      <c r="N12" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>2.5316455696202531E-2</v>
+      </c>
+      <c r="O12" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P12" s="1">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q12" s="1">
+        <f t="shared" ca="1" si="6"/>
+        <v>0.12658227848101264</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>5.8</v>
       </c>
@@ -912,8 +1328,8 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <f ca="1">RAND()</f>
-        <v>0.33782721838075502</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>6.014876362510968E-3</v>
       </c>
       <c r="I13" s="6">
         <v>115</v>
@@ -921,8 +1337,36 @@
       <c r="J13" s="8" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K13" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.73417721518987333</v>
+      </c>
+      <c r="L13" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.35443037974683539</v>
+      </c>
+      <c r="M13" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.64556962025316444</v>
+      </c>
+      <c r="N13" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.30379746835443033</v>
+      </c>
+      <c r="O13" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>0.12658227848101264</v>
+      </c>
+      <c r="P13" s="1">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q13" s="1">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>4.8</v>
       </c>
@@ -945,8 +1389,8 @@
         <v>1</v>
       </c>
       <c r="H14">
-        <f ca="1">RAND()</f>
-        <v>0.4787643463663489</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.39655168218995829</v>
       </c>
       <c r="I14" s="6">
         <v>46</v>
@@ -954,8 +1398,36 @@
       <c r="J14" s="8" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K14" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.60759493670886067</v>
+      </c>
+      <c r="L14" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.37974683544303794</v>
+      </c>
+      <c r="M14" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.17721518987341769</v>
+      </c>
+      <c r="N14" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>3.7974683544303792E-2</v>
+      </c>
+      <c r="O14" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P14" s="1">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q14" s="1">
+        <f t="shared" ca="1" si="6"/>
+        <v>0.12658227848101264</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>5.2</v>
       </c>
@@ -978,8 +1450,8 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <f ca="1">RAND()</f>
-        <v>0.45792340149757838</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.26946352691664466</v>
       </c>
       <c r="I15" s="6">
         <v>60</v>
@@ -987,8 +1459,36 @@
       <c r="J15" s="8" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K15" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.65822784810126578</v>
+      </c>
+      <c r="L15" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.34177215189873417</v>
+      </c>
+      <c r="M15" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.49367088607594933</v>
+      </c>
+      <c r="N15" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.17721518987341769</v>
+      </c>
+      <c r="O15" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P15" s="1">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.12658227848101264</v>
+      </c>
+      <c r="Q15" s="1">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>5.7</v>
       </c>
@@ -1011,8 +1511,8 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <f ca="1">RAND()</f>
-        <v>4.7223453826080397E-2</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>2.2580958038867616E-2</v>
       </c>
       <c r="I16" s="6">
         <v>96</v>
@@ -1020,8 +1520,36 @@
       <c r="J16" s="8" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K16" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.72151898734177211</v>
+      </c>
+      <c r="L16" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.37974683544303794</v>
+      </c>
+      <c r="M16" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.53164556962025311</v>
+      </c>
+      <c r="N16" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.15189873417721517</v>
+      </c>
+      <c r="O16" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P16" s="1">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.12658227848101264</v>
+      </c>
+      <c r="Q16" s="1">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>7</v>
       </c>
@@ -1044,8 +1572,8 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <f ca="1">RAND()</f>
-        <v>0.12825134775260871</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.27778863773294205</v>
       </c>
       <c r="I17" s="6">
         <v>51</v>
@@ -1053,8 +1581,36 @@
       <c r="J17" s="8" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K17" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.88607594936708856</v>
+      </c>
+      <c r="L17" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.4050632911392405</v>
+      </c>
+      <c r="M17" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.59493670886075944</v>
+      </c>
+      <c r="N17" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.17721518987341769</v>
+      </c>
+      <c r="O17" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P17" s="1">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.12658227848101264</v>
+      </c>
+      <c r="Q17" s="1">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>4.8</v>
       </c>
@@ -1077,8 +1633,8 @@
         <v>1</v>
       </c>
       <c r="H18">
-        <f ca="1">RAND()</f>
-        <v>0.51617533135531246</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.53416871107571062</v>
       </c>
       <c r="I18" s="6">
         <v>12</v>
@@ -1086,8 +1642,36 @@
       <c r="J18" s="8" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K18" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.60759493670886067</v>
+      </c>
+      <c r="L18" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.430379746835443</v>
+      </c>
+      <c r="M18" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.20253164556962025</v>
+      </c>
+      <c r="N18" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>2.5316455696202531E-2</v>
+      </c>
+      <c r="O18" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P18" s="1">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q18" s="1">
+        <f t="shared" ca="1" si="6"/>
+        <v>0.12658227848101264</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>4.5999999999999996</v>
       </c>
@@ -1110,8 +1694,8 @@
         <v>1</v>
       </c>
       <c r="H19">
-        <f ca="1">RAND()</f>
-        <v>0.63023768624124288</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>6.4986614041776525E-2</v>
       </c>
       <c r="I19" s="6">
         <v>23</v>
@@ -1119,8 +1703,36 @@
       <c r="J19" s="8" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K19" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.58227848101265811</v>
+      </c>
+      <c r="L19" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.45569620253164556</v>
+      </c>
+      <c r="M19" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.12658227848101264</v>
+      </c>
+      <c r="N19" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>2.5316455696202531E-2</v>
+      </c>
+      <c r="O19" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P19" s="1">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q19" s="1">
+        <f t="shared" ca="1" si="6"/>
+        <v>0.12658227848101264</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>6.5</v>
       </c>
@@ -1143,8 +1755,8 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <f ca="1">RAND()</f>
-        <v>0.29722708449953228</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.55083080463100642</v>
       </c>
       <c r="I20" s="6">
         <v>105</v>
@@ -1152,8 +1764,36 @@
       <c r="J20" s="8" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K20" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.82278481012658222</v>
+      </c>
+      <c r="L20" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.37974683544303794</v>
+      </c>
+      <c r="M20" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.73417721518987333</v>
+      </c>
+      <c r="N20" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.27848101265822783</v>
+      </c>
+      <c r="O20" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>0.12658227848101264</v>
+      </c>
+      <c r="P20" s="1">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q20" s="1">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>6.3</v>
       </c>
@@ -1176,8 +1816,8 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <f ca="1">RAND()</f>
-        <v>0.30410454085660921</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.45985002608857195</v>
       </c>
       <c r="I21" s="6">
         <v>147</v>
@@ -1185,8 +1825,36 @@
       <c r="J21" s="8" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K21" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.79746835443037967</v>
+      </c>
+      <c r="L21" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.31645569620253161</v>
+      </c>
+      <c r="M21" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.63291139240506322</v>
+      </c>
+      <c r="N21" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.24050632911392403</v>
+      </c>
+      <c r="O21" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>0.12658227848101264</v>
+      </c>
+      <c r="P21" s="1">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q21" s="1">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>6.8</v>
       </c>
@@ -1209,8 +1877,8 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <f ca="1">RAND()</f>
-        <v>0.51783347534183055</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.24591149806365464</v>
       </c>
       <c r="I22" s="6">
         <v>144</v>
@@ -1218,8 +1886,36 @@
       <c r="J22" s="8" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K22" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.860759493670886</v>
+      </c>
+      <c r="L22" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.4050632911392405</v>
+      </c>
+      <c r="M22" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.74683544303797467</v>
+      </c>
+      <c r="N22" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.29113924050632906</v>
+      </c>
+      <c r="O22" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>0.12658227848101264</v>
+      </c>
+      <c r="P22" s="1">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q22" s="1">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>6.2</v>
       </c>
@@ -1242,8 +1938,8 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <f ca="1">RAND()</f>
-        <v>0.70477276857969506</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.84195678289259668</v>
       </c>
       <c r="I23" s="6">
         <v>98</v>
@@ -1251,8 +1947,36 @@
       <c r="J23" s="8" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K23" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.78481012658227844</v>
+      </c>
+      <c r="L23" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.36708860759493667</v>
+      </c>
+      <c r="M23" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.54430379746835433</v>
+      </c>
+      <c r="N23" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.16455696202531644</v>
+      </c>
+      <c r="O23" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P23" s="1">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.12658227848101264</v>
+      </c>
+      <c r="Q23" s="1">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>6.7</v>
       </c>
@@ -1275,8 +1999,8 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <f ca="1">RAND()</f>
-        <v>0.95874596673826851</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.44764751429364558</v>
       </c>
       <c r="I24" s="6">
         <v>109</v>
@@ -1284,8 +2008,36 @@
       <c r="J24" s="8" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K24" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.84810126582278478</v>
+      </c>
+      <c r="L24" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.31645569620253161</v>
+      </c>
+      <c r="M24" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.73417721518987333</v>
+      </c>
+      <c r="N24" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.22784810126582278</v>
+      </c>
+      <c r="O24" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>0.12658227848101264</v>
+      </c>
+      <c r="P24" s="1">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q24" s="1">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>5</v>
       </c>
@@ -1308,8 +2060,8 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <f ca="1">RAND()</f>
-        <v>0.44758279712273552</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>6.1923240664795487E-2</v>
       </c>
       <c r="I25" s="6">
         <v>61</v>
@@ -1317,8 +2069,36 @@
       <c r="J25" s="8" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K25" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.63291139240506322</v>
+      </c>
+      <c r="L25" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.25316455696202528</v>
+      </c>
+      <c r="M25" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.44303797468354428</v>
+      </c>
+      <c r="N25" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.12658227848101264</v>
+      </c>
+      <c r="O25" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P25" s="1">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.12658227848101264</v>
+      </c>
+      <c r="Q25" s="1">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>6.7</v>
       </c>
@@ -1341,8 +2121,8 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <f ca="1">RAND()</f>
-        <v>0.17191908038717196</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.56345731892945261</v>
       </c>
       <c r="I26" s="6">
         <v>66</v>
@@ -1350,8 +2130,36 @@
       <c r="J26" s="8" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K26" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.84810126582278478</v>
+      </c>
+      <c r="L26" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.39240506329113922</v>
+      </c>
+      <c r="M26" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.55696202531645567</v>
+      </c>
+      <c r="N26" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.17721518987341769</v>
+      </c>
+      <c r="O26" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P26" s="1">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.12658227848101264</v>
+      </c>
+      <c r="Q26" s="1">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>5.6</v>
       </c>
@@ -1374,8 +2182,8 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <f ca="1">RAND()</f>
-        <v>0.4747002556331148</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.51951168114480206</v>
       </c>
       <c r="I27" s="6">
         <v>65</v>
@@ -1383,8 +2191,36 @@
       <c r="J27" s="8" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K27" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.70886075949367078</v>
+      </c>
+      <c r="L27" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.36708860759493667</v>
+      </c>
+      <c r="M27" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.45569620253164556</v>
+      </c>
+      <c r="N27" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.16455696202531644</v>
+      </c>
+      <c r="O27" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P27" s="1">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.12658227848101264</v>
+      </c>
+      <c r="Q27" s="1">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>6.6</v>
       </c>
@@ -1407,8 +2243,8 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <f ca="1">RAND()</f>
-        <v>0.82055511142634852</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.94976784457494545</v>
       </c>
       <c r="I28" s="6">
         <v>76</v>
@@ -1416,8 +2252,36 @@
       <c r="J28" s="8" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K28" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.83544303797468344</v>
+      </c>
+      <c r="L28" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.37974683544303794</v>
+      </c>
+      <c r="M28" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.55696202531645567</v>
+      </c>
+      <c r="N28" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.17721518987341769</v>
+      </c>
+      <c r="O28" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P28" s="1">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.12658227848101264</v>
+      </c>
+      <c r="Q28" s="1">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>5</v>
       </c>
@@ -1440,8 +2304,8 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <f ca="1">RAND()</f>
-        <v>0.74858430125650777</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>2.5726876672891863E-2</v>
       </c>
       <c r="I29" s="6">
         <v>94</v>
@@ -1449,8 +2313,36 @@
       <c r="J29" s="8" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K29" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.63291139240506322</v>
+      </c>
+      <c r="L29" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.29113924050632906</v>
+      </c>
+      <c r="M29" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.41772151898734172</v>
+      </c>
+      <c r="N29" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.12658227848101264</v>
+      </c>
+      <c r="O29" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P29" s="1">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.12658227848101264</v>
+      </c>
+      <c r="Q29" s="1">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>5.0999999999999996</v>
       </c>
@@ -1473,8 +2365,8 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <f ca="1">RAND()</f>
-        <v>0.61732574824036401</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.27417758806530346</v>
       </c>
       <c r="I30" s="6">
         <v>99</v>
@@ -1482,8 +2374,36 @@
       <c r="J30" s="8" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K30" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.64556962025316444</v>
+      </c>
+      <c r="L30" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.31645569620253161</v>
+      </c>
+      <c r="M30" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.37974683544303794</v>
+      </c>
+      <c r="N30" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.13924050632911392</v>
+      </c>
+      <c r="O30" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P30" s="1">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.12658227848101264</v>
+      </c>
+      <c r="Q30" s="1">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>6.4</v>
       </c>
@@ -1506,8 +2426,8 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <f ca="1">RAND()</f>
-        <v>0.96608916665792388</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.73612203145807997</v>
       </c>
       <c r="I31" s="6">
         <v>112</v>
@@ -1515,8 +2435,36 @@
       <c r="J31" s="8" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K31" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.810126582278481</v>
+      </c>
+      <c r="L31" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.34177215189873417</v>
+      </c>
+      <c r="M31" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.670886075949367</v>
+      </c>
+      <c r="N31" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.24050632911392403</v>
+      </c>
+      <c r="O31" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>0.12658227848101264</v>
+      </c>
+      <c r="P31" s="1">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q31" s="1">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>6.9</v>
       </c>
@@ -1539,8 +2487,8 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <f ca="1">RAND()</f>
-        <v>0.76531109993765878</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.26396806230657621</v>
       </c>
       <c r="I32" s="6">
         <v>142</v>
@@ -1548,8 +2496,36 @@
       <c r="J32" s="8" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K32" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.87341772151898733</v>
+      </c>
+      <c r="L32" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.39240506329113922</v>
+      </c>
+      <c r="M32" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.64556962025316444</v>
+      </c>
+      <c r="N32" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.29113924050632906</v>
+      </c>
+      <c r="O32" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>0.12658227848101264</v>
+      </c>
+      <c r="P32" s="1">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q32" s="1">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>5.8</v>
       </c>
@@ -1572,8 +2548,8 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <f ca="1">RAND()</f>
-        <v>0.39332467138028537</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>9.2561872964594394E-2</v>
       </c>
       <c r="I33" s="6">
         <v>102</v>
@@ -1581,8 +2557,36 @@
       <c r="J33" s="8" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K33" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.73417721518987333</v>
+      </c>
+      <c r="L33" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.34177215189873417</v>
+      </c>
+      <c r="M33" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.64556962025316444</v>
+      </c>
+      <c r="N33" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.24050632911392403</v>
+      </c>
+      <c r="O33" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>0.12658227848101264</v>
+      </c>
+      <c r="P33" s="1">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q33" s="1">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>5.7</v>
       </c>
@@ -1605,8 +2609,8 @@
         <v>1</v>
       </c>
       <c r="H34">
-        <f ca="1">RAND()</f>
-        <v>0.12211256674751592</v>
+        <f t="shared" ref="H34:H65" ca="1" si="7">RAND()</f>
+        <v>0.72668267076133852</v>
       </c>
       <c r="I34" s="6">
         <v>16</v>
@@ -1614,8 +2618,36 @@
       <c r="J34" s="8" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K34" s="1">
+        <f t="shared" ref="K34:P97" ca="1" si="8">(A34-MIN($A:$H))/(MAX($A:$H)-MIN($A:$H))</f>
+        <v>0.72151898734177211</v>
+      </c>
+      <c r="L34" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.55696202531645567</v>
+      </c>
+      <c r="M34" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.18987341772151897</v>
+      </c>
+      <c r="N34" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>5.0632911392405063E-2</v>
+      </c>
+      <c r="O34" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P34" s="1">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q34" s="1">
+        <f t="shared" ca="1" si="6"/>
+        <v>0.12658227848101264</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>5.8</v>
       </c>
@@ -1638,8 +2670,8 @@
         <v>1</v>
       </c>
       <c r="H35">
-        <f ca="1">RAND()</f>
-        <v>0.70434142698287949</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>0.33293356056049062</v>
       </c>
       <c r="I35" s="6">
         <v>15</v>
@@ -1647,8 +2679,36 @@
       <c r="J35" s="8" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K35" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.73417721518987333</v>
+      </c>
+      <c r="L35" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.50632911392405056</v>
+      </c>
+      <c r="M35" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.15189873417721517</v>
+      </c>
+      <c r="N35" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>2.5316455696202531E-2</v>
+      </c>
+      <c r="O35" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P35" s="1">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q35" s="1">
+        <f t="shared" ca="1" si="6"/>
+        <v>0.12658227848101264</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>6</v>
       </c>
@@ -1671,8 +2731,8 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <f ca="1">RAND()</f>
-        <v>2.5078479023368572E-2</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>0.43336495458312496</v>
       </c>
       <c r="I36" s="6">
         <v>79</v>
@@ -1680,8 +2740,36 @@
       <c r="J36" s="8" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K36" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.75949367088607589</v>
+      </c>
+      <c r="L36" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.36708860759493667</v>
+      </c>
+      <c r="M36" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.56962025316455689</v>
+      </c>
+      <c r="N36" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.18987341772151897</v>
+      </c>
+      <c r="O36" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P36" s="1">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.12658227848101264</v>
+      </c>
+      <c r="Q36" s="1">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>7.2</v>
       </c>
@@ -1704,8 +2792,8 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <f ca="1">RAND()</f>
-        <v>6.834676974600995E-2</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>0.78470333882288001</v>
       </c>
       <c r="I37" s="6">
         <v>110</v>
@@ -1713,8 +2801,36 @@
       <c r="J37" s="8" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K37" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.91139240506329111</v>
+      </c>
+      <c r="L37" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.45569620253164556</v>
+      </c>
+      <c r="M37" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.77215189873417711</v>
+      </c>
+      <c r="N37" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.31645569620253161</v>
+      </c>
+      <c r="O37" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>0.12658227848101264</v>
+      </c>
+      <c r="P37" s="1">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q37" s="1">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>6.7</v>
       </c>
@@ -1737,8 +2853,8 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <f ca="1">RAND()</f>
-        <v>2.2503831408645092E-2</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>0.77750157975900136</v>
       </c>
       <c r="I38" s="6">
         <v>78</v>
@@ -1746,8 +2862,36 @@
       <c r="J38" s="8" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K38" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.84810126582278478</v>
+      </c>
+      <c r="L38" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.37974683544303794</v>
+      </c>
+      <c r="M38" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.63291139240506322</v>
+      </c>
+      <c r="N38" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.2151898734177215</v>
+      </c>
+      <c r="O38" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P38" s="1">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.12658227848101264</v>
+      </c>
+      <c r="Q38" s="1">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>6.3</v>
       </c>
@@ -1770,8 +2914,8 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <f ca="1">RAND()</f>
-        <v>0.96571595995313719</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>0.94729369491196513</v>
       </c>
       <c r="I39" s="6">
         <v>124</v>
@@ -1779,8 +2923,36 @@
       <c r="J39" s="8" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K39" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.79746835443037967</v>
+      </c>
+      <c r="L39" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.34177215189873417</v>
+      </c>
+      <c r="M39" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.620253164556962</v>
+      </c>
+      <c r="N39" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.22784810126582278</v>
+      </c>
+      <c r="O39" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>0.12658227848101264</v>
+      </c>
+      <c r="P39" s="1">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q39" s="1">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>6.2</v>
       </c>
@@ -1803,8 +2975,8 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <f ca="1">RAND()</f>
-        <v>0.94629099025565588</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>0.86733976738470331</v>
       </c>
       <c r="I40" s="6">
         <v>127</v>
@@ -1812,8 +2984,36 @@
       <c r="J40" s="8" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K40" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.78481012658227844</v>
+      </c>
+      <c r="L40" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.35443037974683539</v>
+      </c>
+      <c r="M40" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.60759493670886067</v>
+      </c>
+      <c r="N40" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.22784810126582278</v>
+      </c>
+      <c r="O40" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>0.12658227848101264</v>
+      </c>
+      <c r="P40" s="1">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q40" s="1">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>6.9</v>
       </c>
@@ -1836,8 +3036,8 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <f ca="1">RAND()</f>
-        <v>0.62563111087771839</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>0.22138584856776522</v>
       </c>
       <c r="I41" s="6">
         <v>140</v>
@@ -1845,8 +3045,36 @@
       <c r="J41" s="8" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K41" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.87341772151898733</v>
+      </c>
+      <c r="L41" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.39240506329113922</v>
+      </c>
+      <c r="M41" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.68354430379746833</v>
+      </c>
+      <c r="N41" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.26582278481012656</v>
+      </c>
+      <c r="O41" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>0.12658227848101264</v>
+      </c>
+      <c r="P41" s="1">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q41" s="1">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>4.9000000000000004</v>
       </c>
@@ -1869,8 +3097,8 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <f ca="1">RAND()</f>
-        <v>0.15044760261209966</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>0.13040936248117319</v>
       </c>
       <c r="I42" s="6">
         <v>58</v>
@@ -1878,8 +3106,36 @@
       <c r="J42" s="8" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K42" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.620253164556962</v>
+      </c>
+      <c r="L42" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.30379746835443033</v>
+      </c>
+      <c r="M42" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.41772151898734172</v>
+      </c>
+      <c r="N42" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.12658227848101264</v>
+      </c>
+      <c r="O42" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P42" s="1">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.12658227848101264</v>
+      </c>
+      <c r="Q42" s="1">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>5</v>
       </c>
@@ -1902,8 +3158,8 @@
         <v>1</v>
       </c>
       <c r="H43">
-        <f ca="1">RAND()</f>
-        <v>0.90587829029657918</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>0.96181793929915693</v>
       </c>
       <c r="I43" s="6">
         <v>27</v>
@@ -1911,8 +3167,36 @@
       <c r="J43" s="8" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K43" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.63291139240506322</v>
+      </c>
+      <c r="L43" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.430379746835443</v>
+      </c>
+      <c r="M43" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.20253164556962025</v>
+      </c>
+      <c r="N43" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>5.0632911392405063E-2</v>
+      </c>
+      <c r="O43" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P43" s="1">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q43" s="1">
+        <f t="shared" ca="1" si="6"/>
+        <v>0.12658227848101264</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>6.7</v>
       </c>
@@ -1935,8 +3219,8 @@
         <v>0</v>
       </c>
       <c r="H44">
-        <f ca="1">RAND()</f>
-        <v>0.26599027590478441</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>0.82414638194023238</v>
       </c>
       <c r="I44" s="6">
         <v>87</v>
@@ -1944,8 +3228,36 @@
       <c r="J44" s="8" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K44" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.84810126582278478</v>
+      </c>
+      <c r="L44" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.39240506329113922</v>
+      </c>
+      <c r="M44" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.59493670886075944</v>
+      </c>
+      <c r="N44" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.18987341772151897</v>
+      </c>
+      <c r="O44" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P44" s="1">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.12658227848101264</v>
+      </c>
+      <c r="Q44" s="1">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>4.9000000000000004</v>
       </c>
@@ -1968,8 +3280,8 @@
         <v>0</v>
       </c>
       <c r="H45">
-        <f ca="1">RAND()</f>
-        <v>0.26630718261396846</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>0.36027722156873776</v>
       </c>
       <c r="I45" s="6">
         <v>107</v>
@@ -1977,8 +3289,36 @@
       <c r="J45" s="8" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K45" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.620253164556962</v>
+      </c>
+      <c r="L45" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.31645569620253161</v>
+      </c>
+      <c r="M45" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.56962025316455689</v>
+      </c>
+      <c r="N45" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.2151898734177215</v>
+      </c>
+      <c r="O45" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>0.12658227848101264</v>
+      </c>
+      <c r="P45" s="1">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q45" s="1">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>5.4</v>
       </c>
@@ -2001,8 +3341,8 @@
         <v>1</v>
       </c>
       <c r="H46">
-        <f ca="1">RAND()</f>
-        <v>0.71902036213241716</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>0.18484458494583011</v>
       </c>
       <c r="I46" s="6">
         <v>6</v>
@@ -2010,8 +3350,36 @@
       <c r="J46" s="8" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K46" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.68354430379746833</v>
+      </c>
+      <c r="L46" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.49367088607594933</v>
+      </c>
+      <c r="M46" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.2151898734177215</v>
+      </c>
+      <c r="N46" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>5.0632911392405063E-2</v>
+      </c>
+      <c r="O46" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P46" s="1">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q46" s="1">
+        <f t="shared" ca="1" si="6"/>
+        <v>0.12658227848101264</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>5.8</v>
       </c>
@@ -2034,8 +3402,8 @@
         <v>0</v>
       </c>
       <c r="H47">
-        <f ca="1">RAND()</f>
-        <v>0.58456404568183251</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>0.95833057919083398</v>
       </c>
       <c r="I47" s="6">
         <v>68</v>
@@ -2043,8 +3411,36 @@
       <c r="J47" s="8" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K47" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.73417721518987333</v>
+      </c>
+      <c r="L47" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.34177215189873417</v>
+      </c>
+      <c r="M47" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.51898734177215178</v>
+      </c>
+      <c r="N47" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.12658227848101264</v>
+      </c>
+      <c r="O47" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P47" s="1">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.12658227848101264</v>
+      </c>
+      <c r="Q47" s="1">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>7.2</v>
       </c>
@@ -2067,8 +3463,8 @@
         <v>0</v>
       </c>
       <c r="H48">
-        <f ca="1">RAND()</f>
-        <v>0.50303227509527093</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>0.65940247573407351</v>
       </c>
       <c r="I48" s="6">
         <v>126</v>
@@ -2076,8 +3472,36 @@
       <c r="J48" s="8" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K48" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.91139240506329111</v>
+      </c>
+      <c r="L48" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.4050632911392405</v>
+      </c>
+      <c r="M48" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.75949367088607589</v>
+      </c>
+      <c r="N48" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.22784810126582278</v>
+      </c>
+      <c r="O48" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>0.12658227848101264</v>
+      </c>
+      <c r="P48" s="1">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q48" s="1">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>5.5</v>
       </c>
@@ -2100,8 +3524,8 @@
         <v>0</v>
       </c>
       <c r="H49">
-        <f ca="1">RAND()</f>
-        <v>0.45548084887420637</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>0.26988072684007258</v>
       </c>
       <c r="I49" s="6">
         <v>91</v>
@@ -2109,8 +3533,36 @@
       <c r="J49" s="8" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K49" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.69620253164556956</v>
+      </c>
+      <c r="L49" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.32911392405063289</v>
+      </c>
+      <c r="M49" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.55696202531645567</v>
+      </c>
+      <c r="N49" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.15189873417721517</v>
+      </c>
+      <c r="O49" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P49" s="1">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.12658227848101264</v>
+      </c>
+      <c r="Q49" s="1">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>6.5</v>
       </c>
@@ -2133,8 +3585,8 @@
         <v>0</v>
       </c>
       <c r="H50">
-        <f ca="1">RAND()</f>
-        <v>0.3903422814429377</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>0.37173913444378481</v>
       </c>
       <c r="I50" s="6">
         <v>55</v>
@@ -2142,8 +3594,36 @@
       <c r="J50" s="8" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K50" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.82278481012658222</v>
+      </c>
+      <c r="L50" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.35443037974683539</v>
+      </c>
+      <c r="M50" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.58227848101265811</v>
+      </c>
+      <c r="N50" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.18987341772151897</v>
+      </c>
+      <c r="O50" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P50" s="1">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.12658227848101264</v>
+      </c>
+      <c r="Q50" s="1">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>5.7</v>
       </c>
@@ -2166,8 +3646,8 @@
         <v>1</v>
       </c>
       <c r="H51">
-        <f ca="1">RAND()</f>
-        <v>0.64597595220800885</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>0.56372618957328002</v>
       </c>
       <c r="I51" s="6">
         <v>19</v>
@@ -2175,8 +3655,36 @@
       <c r="J51" s="8" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K51" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.72151898734177211</v>
+      </c>
+      <c r="L51" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.48101265822784806</v>
+      </c>
+      <c r="M51" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.2151898734177215</v>
+      </c>
+      <c r="N51" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>3.7974683544303792E-2</v>
+      </c>
+      <c r="O51" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P51" s="1">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q51" s="1">
+        <f t="shared" ca="1" si="6"/>
+        <v>0.12658227848101264</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>5.7</v>
       </c>
@@ -2199,8 +3707,8 @@
         <v>0</v>
       </c>
       <c r="H52">
-        <f ca="1">RAND()</f>
-        <v>0.12533869943672804</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>0.89357061199443877</v>
       </c>
       <c r="I52" s="6">
         <v>114</v>
@@ -2208,8 +3716,36 @@
       <c r="J52" s="7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K52" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.72151898734177211</v>
+      </c>
+      <c r="L52" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.31645569620253161</v>
+      </c>
+      <c r="M52" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.63291139240506322</v>
+      </c>
+      <c r="N52" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.25316455696202528</v>
+      </c>
+      <c r="O52" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>0.12658227848101264</v>
+      </c>
+      <c r="P52" s="1">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q52" s="1">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>5.7</v>
       </c>
@@ -2232,8 +3768,8 @@
         <v>0</v>
       </c>
       <c r="H53">
-        <f ca="1">RAND()</f>
-        <v>0.95447192838373385</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>0.7816342222152175</v>
       </c>
       <c r="I53" s="6">
         <v>80</v>
@@ -2241,8 +3777,36 @@
       <c r="J53" s="7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K53" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.72151898734177211</v>
+      </c>
+      <c r="L53" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.32911392405063289</v>
+      </c>
+      <c r="M53" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.44303797468354428</v>
+      </c>
+      <c r="N53" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.12658227848101264</v>
+      </c>
+      <c r="O53" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P53" s="1">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.12658227848101264</v>
+      </c>
+      <c r="Q53" s="1">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>6</v>
       </c>
@@ -2265,8 +3829,8 @@
         <v>0</v>
       </c>
       <c r="H54">
-        <f ca="1">RAND()</f>
-        <v>5.2327904541525916E-2</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>0.32022202766590813</v>
       </c>
       <c r="I54" s="6">
         <v>84</v>
@@ -2274,8 +3838,36 @@
       <c r="J54" s="7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K54" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.75949367088607589</v>
+      </c>
+      <c r="L54" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.34177215189873417</v>
+      </c>
+      <c r="M54" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.64556962025316444</v>
+      </c>
+      <c r="N54" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.20253164556962025</v>
+      </c>
+      <c r="O54" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P54" s="1">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.12658227848101264</v>
+      </c>
+      <c r="Q54" s="1">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>4.4000000000000004</v>
       </c>
@@ -2298,8 +3890,8 @@
         <v>1</v>
       </c>
       <c r="H55">
-        <f ca="1">RAND()</f>
-        <v>0.64977094165974369</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>0.98757926579830169</v>
       </c>
       <c r="I55" s="6">
         <v>9</v>
@@ -2307,8 +3899,36 @@
       <c r="J55" s="7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K55" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.55696202531645567</v>
+      </c>
+      <c r="L55" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.36708860759493667</v>
+      </c>
+      <c r="M55" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.17721518987341769</v>
+      </c>
+      <c r="N55" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>2.5316455696202531E-2</v>
+      </c>
+      <c r="O55" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P55" s="1">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q55" s="1">
+        <f t="shared" ca="1" si="6"/>
+        <v>0.12658227848101264</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>5.0999999999999996</v>
       </c>
@@ -2331,8 +3951,8 @@
         <v>1</v>
       </c>
       <c r="H56">
-        <f ca="1">RAND()</f>
-        <v>0.53675229082307907</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>0.86935119119368309</v>
       </c>
       <c r="I56" s="6">
         <v>47</v>
@@ -2340,8 +3960,36 @@
       <c r="J56" s="7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K56" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.64556962025316444</v>
+      </c>
+      <c r="L56" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.48101265822784806</v>
+      </c>
+      <c r="M56" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.20253164556962025</v>
+      </c>
+      <c r="N56" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>2.5316455696202531E-2</v>
+      </c>
+      <c r="O56" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P56" s="1">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q56" s="1">
+        <f t="shared" ca="1" si="6"/>
+        <v>0.12658227848101264</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>6.7</v>
       </c>
@@ -2364,8 +4012,8 @@
         <v>0</v>
       </c>
       <c r="H57">
-        <f ca="1">RAND()</f>
-        <v>0.27242058191994101</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>0.49063215192053256</v>
       </c>
       <c r="I57" s="6">
         <v>145</v>
@@ -2373,8 +4021,36 @@
       <c r="J57" s="7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K57" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.84810126582278478</v>
+      </c>
+      <c r="L57" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.41772151898734172</v>
+      </c>
+      <c r="M57" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.72151898734177211</v>
+      </c>
+      <c r="N57" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.31645569620253161</v>
+      </c>
+      <c r="O57" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>0.12658227848101264</v>
+      </c>
+      <c r="P57" s="1">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q57" s="1">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>6.3</v>
       </c>
@@ -2397,8 +4073,8 @@
         <v>0</v>
       </c>
       <c r="H58">
-        <f ca="1">RAND()</f>
-        <v>0.24438566830102748</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>0.11133399042593051</v>
       </c>
       <c r="I58" s="6">
         <v>137</v>
@@ -2406,8 +4082,36 @@
       <c r="J58" s="7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K58" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.79746835443037967</v>
+      </c>
+      <c r="L58" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.430379746835443</v>
+      </c>
+      <c r="M58" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.70886075949367078</v>
+      </c>
+      <c r="N58" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.30379746835443033</v>
+      </c>
+      <c r="O58" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>0.12658227848101264</v>
+      </c>
+      <c r="P58" s="1">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q58" s="1">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>5.9</v>
       </c>
@@ -2430,8 +4134,8 @@
         <v>0</v>
       </c>
       <c r="H59">
-        <f ca="1">RAND()</f>
-        <v>0.40311234051545686</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>0.38920135993853988</v>
       </c>
       <c r="I59" s="6">
         <v>150</v>
@@ -2439,8 +4143,36 @@
       <c r="J59" s="7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K59" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.74683544303797467</v>
+      </c>
+      <c r="L59" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.37974683544303794</v>
+      </c>
+      <c r="M59" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.64556962025316444</v>
+      </c>
+      <c r="N59" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.22784810126582278</v>
+      </c>
+      <c r="O59" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>0.12658227848101264</v>
+      </c>
+      <c r="P59" s="1">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q59" s="1">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>6</v>
       </c>
@@ -2463,8 +4195,8 @@
         <v>0</v>
       </c>
       <c r="H60">
-        <f ca="1">RAND()</f>
-        <v>0.86243391523130963</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>0.61739614916971763</v>
       </c>
       <c r="I60" s="6">
         <v>139</v>
@@ -2472,8 +4204,36 @@
       <c r="J60" s="7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K60" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.75949367088607589</v>
+      </c>
+      <c r="L60" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.37974683544303794</v>
+      </c>
+      <c r="M60" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.60759493670886067</v>
+      </c>
+      <c r="N60" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.22784810126582278</v>
+      </c>
+      <c r="O60" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>0.12658227848101264</v>
+      </c>
+      <c r="P60" s="1">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q60" s="1">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>5.0999999999999996</v>
       </c>
@@ -2496,8 +4256,8 @@
         <v>1</v>
       </c>
       <c r="H61">
-        <f ca="1">RAND()</f>
-        <v>0.91434522740790769</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>0.35043055426980851</v>
       </c>
       <c r="I61" s="6">
         <v>24</v>
@@ -2505,8 +4265,36 @@
       <c r="J61" s="7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K61" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.64556962025316444</v>
+      </c>
+      <c r="L61" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.41772151898734172</v>
+      </c>
+      <c r="M61" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.2151898734177215</v>
+      </c>
+      <c r="N61" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>6.3291139240506319E-2</v>
+      </c>
+      <c r="O61" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P61" s="1">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q61" s="1">
+        <f t="shared" ca="1" si="6"/>
+        <v>0.12658227848101264</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>6.7</v>
       </c>
@@ -2529,8 +4317,8 @@
         <v>0</v>
       </c>
       <c r="H62">
-        <f ca="1">RAND()</f>
-        <v>0.49892401778538942</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>0.11064216860009246</v>
       </c>
       <c r="I62" s="6">
         <v>141</v>
@@ -2538,8 +4326,36 @@
       <c r="J62" s="7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K62" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.84810126582278478</v>
+      </c>
+      <c r="L62" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.39240506329113922</v>
+      </c>
+      <c r="M62" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.70886075949367078</v>
+      </c>
+      <c r="N62" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.30379746835443033</v>
+      </c>
+      <c r="O62" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>0.12658227848101264</v>
+      </c>
+      <c r="P62" s="1">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q62" s="1">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>4.4000000000000004</v>
       </c>
@@ -2562,8 +4378,8 @@
         <v>1</v>
       </c>
       <c r="H63">
-        <f ca="1">RAND()</f>
-        <v>0.32677774903085399</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>0.73831774663395888</v>
       </c>
       <c r="I63" s="6">
         <v>39</v>
@@ -2571,8 +4387,36 @@
       <c r="J63" s="7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K63" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.55696202531645567</v>
+      </c>
+      <c r="L63" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.37974683544303794</v>
+      </c>
+      <c r="M63" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.16455696202531644</v>
+      </c>
+      <c r="N63" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>2.5316455696202531E-2</v>
+      </c>
+      <c r="O63" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P63" s="1">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q63" s="1">
+        <f t="shared" ca="1" si="6"/>
+        <v>0.12658227848101264</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>6.1</v>
       </c>
@@ -2595,8 +4439,8 @@
         <v>0</v>
       </c>
       <c r="H64">
-        <f ca="1">RAND()</f>
-        <v>0.57506027299121876</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>0.62623273080662356</v>
       </c>
       <c r="I64" s="6">
         <v>135</v>
@@ -2604,8 +4448,36 @@
       <c r="J64" s="7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K64" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.77215189873417711</v>
+      </c>
+      <c r="L64" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.32911392405063289</v>
+      </c>
+      <c r="M64" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.70886075949367078</v>
+      </c>
+      <c r="N64" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.17721518987341769</v>
+      </c>
+      <c r="O64" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>0.12658227848101264</v>
+      </c>
+      <c r="P64" s="1">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q64" s="1">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>4.8</v>
       </c>
@@ -2628,8 +4500,8 @@
         <v>1</v>
       </c>
       <c r="H65">
-        <f ca="1">RAND()</f>
-        <v>0.44735444222518128</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>0.88897946131935257</v>
       </c>
       <c r="I65" s="6">
         <v>13</v>
@@ -2637,8 +4509,36 @@
       <c r="J65" s="7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K65" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.60759493670886067</v>
+      </c>
+      <c r="L65" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.37974683544303794</v>
+      </c>
+      <c r="M65" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.17721518987341769</v>
+      </c>
+      <c r="N65" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.2658227848101266E-2</v>
+      </c>
+      <c r="O65" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P65" s="1">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q65" s="1">
+        <f t="shared" ca="1" si="6"/>
+        <v>0.12658227848101264</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>5</v>
       </c>
@@ -2661,8 +4561,8 @@
         <v>1</v>
       </c>
       <c r="H66">
-        <f ca="1">RAND()</f>
-        <v>0.59831448708906998</v>
+        <f t="shared" ref="H66:H97" ca="1" si="9">RAND()</f>
+        <v>0.95447846626266375</v>
       </c>
       <c r="I66" s="6">
         <v>5</v>
@@ -2670,8 +4570,36 @@
       <c r="J66" s="7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K66" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.63291139240506322</v>
+      </c>
+      <c r="L66" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.45569620253164556</v>
+      </c>
+      <c r="M66" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.17721518987341769</v>
+      </c>
+      <c r="N66" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>2.5316455696202531E-2</v>
+      </c>
+      <c r="O66" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P66" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Q66" s="1">
+        <f t="shared" ref="Q66:Q129" ca="1" si="10">(G66-MIN($A:$H))/(MAX($A:$H)-MIN($A:$H))</f>
+        <v>0.12658227848101264</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>7.1</v>
       </c>
@@ -2694,8 +4622,8 @@
         <v>0</v>
       </c>
       <c r="H67">
-        <f ca="1">RAND()</f>
-        <v>0.29620169119145257</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>0.79018405153895421</v>
       </c>
       <c r="I67" s="6">
         <v>103</v>
@@ -2703,8 +4631,36 @@
       <c r="J67" s="7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K67" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.89873417721518978</v>
+      </c>
+      <c r="L67" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.37974683544303794</v>
+      </c>
+      <c r="M67" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.74683544303797467</v>
+      </c>
+      <c r="N67" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.26582278481012656</v>
+      </c>
+      <c r="O67" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.12658227848101264</v>
+      </c>
+      <c r="P67" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Q67" s="1">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>5</v>
       </c>
@@ -2727,8 +4683,8 @@
         <v>1</v>
       </c>
       <c r="H68">
-        <f ca="1">RAND()</f>
-        <v>0.63497523633350739</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>0.91034722497102782</v>
       </c>
       <c r="I68" s="6">
         <v>8</v>
@@ -2736,8 +4692,36 @@
       <c r="J68" s="7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K68" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.63291139240506322</v>
+      </c>
+      <c r="L68" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.430379746835443</v>
+      </c>
+      <c r="M68" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.18987341772151897</v>
+      </c>
+      <c r="N68" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>2.5316455696202531E-2</v>
+      </c>
+      <c r="O68" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P68" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Q68" s="1">
+        <f t="shared" ca="1" si="10"/>
+        <v>0.12658227848101264</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>5.6</v>
       </c>
@@ -2760,8 +4744,8 @@
         <v>0</v>
       </c>
       <c r="H69">
-        <f ca="1">RAND()</f>
-        <v>0.85092994288350476</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>0.94350079972032974</v>
       </c>
       <c r="I69" s="6">
         <v>70</v>
@@ -2769,8 +4753,36 @@
       <c r="J69" s="7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K69" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.70886075949367078</v>
+      </c>
+      <c r="L69" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.31645569620253161</v>
+      </c>
+      <c r="M69" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.49367088607594933</v>
+      </c>
+      <c r="N69" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.13924050632911392</v>
+      </c>
+      <c r="O69" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P69" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.12658227848101264</v>
+      </c>
+      <c r="Q69" s="1">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>7.2</v>
       </c>
@@ -2793,8 +4805,8 @@
         <v>0</v>
       </c>
       <c r="H70">
-        <f ca="1">RAND()</f>
-        <v>0.88973209161890487</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>0.12552923183824405</v>
       </c>
       <c r="I70" s="6">
         <v>130</v>
@@ -2802,8 +4814,36 @@
       <c r="J70" s="7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K70" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.91139240506329111</v>
+      </c>
+      <c r="L70" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.37974683544303794</v>
+      </c>
+      <c r="M70" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.73417721518987333</v>
+      </c>
+      <c r="N70" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.20253164556962025</v>
+      </c>
+      <c r="O70" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.12658227848101264</v>
+      </c>
+      <c r="P70" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Q70" s="1">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>6.4</v>
       </c>
@@ -2826,8 +4866,8 @@
         <v>0</v>
       </c>
       <c r="H71">
-        <f ca="1">RAND()</f>
-        <v>0.62413321665283794</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>8.1966926400425244E-2</v>
       </c>
       <c r="I71" s="6">
         <v>52</v>
@@ -2835,8 +4875,36 @@
       <c r="J71" s="7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K71" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.810126582278481</v>
+      </c>
+      <c r="L71" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.4050632911392405</v>
+      </c>
+      <c r="M71" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.56962025316455689</v>
+      </c>
+      <c r="N71" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.18987341772151897</v>
+      </c>
+      <c r="O71" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P71" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.12658227848101264</v>
+      </c>
+      <c r="Q71" s="1">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>6.3</v>
       </c>
@@ -2859,8 +4927,8 @@
         <v>0</v>
       </c>
       <c r="H72">
-        <f ca="1">RAND()</f>
-        <v>0.33344317942698842</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>0.18033807772690591</v>
       </c>
       <c r="I72" s="6">
         <v>57</v>
@@ -2868,8 +4936,36 @@
       <c r="J72" s="7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K72" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.79746835443037967</v>
+      </c>
+      <c r="L72" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.41772151898734172</v>
+      </c>
+      <c r="M72" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.59493670886075944</v>
+      </c>
+      <c r="N72" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.20253164556962025</v>
+      </c>
+      <c r="O72" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P72" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.12658227848101264</v>
+      </c>
+      <c r="Q72" s="1">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>6.5</v>
       </c>
@@ -2892,8 +4988,8 @@
         <v>0</v>
       </c>
       <c r="H73">
-        <f ca="1">RAND()</f>
-        <v>0.136488508498954</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>6.9895553630979768E-3</v>
       </c>
       <c r="I73" s="6">
         <v>148</v>
@@ -2901,8 +4997,36 @@
       <c r="J73" s="7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K73" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.82278481012658222</v>
+      </c>
+      <c r="L73" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.37974683544303794</v>
+      </c>
+      <c r="M73" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.65822784810126578</v>
+      </c>
+      <c r="N73" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.25316455696202528</v>
+      </c>
+      <c r="O73" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.12658227848101264</v>
+      </c>
+      <c r="P73" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Q73" s="1">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>6.4</v>
       </c>
@@ -2925,8 +5049,8 @@
         <v>0</v>
       </c>
       <c r="H74">
-        <f ca="1">RAND()</f>
-        <v>5.7485583255154848E-2</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>0.84935110729971008</v>
       </c>
       <c r="I74" s="6">
         <v>129</v>
@@ -2934,8 +5058,36 @@
       <c r="J74" s="7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K74" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.810126582278481</v>
+      </c>
+      <c r="L74" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.35443037974683539</v>
+      </c>
+      <c r="M74" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.70886075949367078</v>
+      </c>
+      <c r="N74" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.26582278481012656</v>
+      </c>
+      <c r="O74" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.12658227848101264</v>
+      </c>
+      <c r="P74" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Q74" s="1">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>5.7</v>
       </c>
@@ -2958,8 +5110,8 @@
         <v>0</v>
       </c>
       <c r="H75">
-        <f ca="1">RAND()</f>
-        <v>0.97663885338966427</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>0.64633866155750841</v>
       </c>
       <c r="I75" s="6">
         <v>100</v>
@@ -2967,8 +5119,36 @@
       <c r="J75" s="7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K75" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.72151898734177211</v>
+      </c>
+      <c r="L75" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.35443037974683539</v>
+      </c>
+      <c r="M75" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.51898734177215178</v>
+      </c>
+      <c r="N75" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.16455696202531644</v>
+      </c>
+      <c r="O75" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P75" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.12658227848101264</v>
+      </c>
+      <c r="Q75" s="1">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>5.5</v>
       </c>
@@ -2991,8 +5171,8 @@
         <v>0</v>
       </c>
       <c r="H76">
-        <f ca="1">RAND()</f>
-        <v>0.8628014865549859</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>0.67656451012849372</v>
       </c>
       <c r="I76" s="6">
         <v>82</v>
@@ -3000,8 +5180,36 @@
       <c r="J76" s="7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K76" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.69620253164556956</v>
+      </c>
+      <c r="L76" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.30379746835443033</v>
+      </c>
+      <c r="M76" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.46835443037974683</v>
+      </c>
+      <c r="N76" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.12658227848101264</v>
+      </c>
+      <c r="O76" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P76" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.12658227848101264</v>
+      </c>
+      <c r="Q76" s="1">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>4.5999999999999996</v>
       </c>
@@ -3024,8 +5232,8 @@
         <v>1</v>
       </c>
       <c r="H77">
-        <f ca="1">RAND()</f>
-        <v>0.62796343549892819</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>0.16604117614264002</v>
       </c>
       <c r="I77" s="6">
         <v>7</v>
@@ -3033,8 +5241,36 @@
       <c r="J77" s="7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K77" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.58227848101265811</v>
+      </c>
+      <c r="L77" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.430379746835443</v>
+      </c>
+      <c r="M77" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.17721518987341769</v>
+      </c>
+      <c r="N77" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>3.7974683544303792E-2</v>
+      </c>
+      <c r="O77" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P77" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Q77" s="1">
+        <f t="shared" ca="1" si="10"/>
+        <v>0.12658227848101264</v>
+      </c>
+    </row>
+    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>5.9</v>
       </c>
@@ -3057,8 +5293,8 @@
         <v>0</v>
       </c>
       <c r="H78">
-        <f ca="1">RAND()</f>
-        <v>0.84095825729049944</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>0.71813729145215932</v>
       </c>
       <c r="I78" s="6">
         <v>62</v>
@@ -3066,8 +5302,36 @@
       <c r="J78" s="7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K78" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.74683544303797467</v>
+      </c>
+      <c r="L78" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.37974683544303794</v>
+      </c>
+      <c r="M78" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.53164556962025311</v>
+      </c>
+      <c r="N78" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.18987341772151897</v>
+      </c>
+      <c r="O78" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P78" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.12658227848101264</v>
+      </c>
+      <c r="Q78" s="1">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>6.9</v>
       </c>
@@ -3090,8 +5354,8 @@
         <v>0</v>
       </c>
       <c r="H79">
-        <f ca="1">RAND()</f>
-        <v>0.55582759252038849</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>0.29330888223657048</v>
       </c>
       <c r="I79" s="6">
         <v>121</v>
@@ -3099,8 +5363,36 @@
       <c r="J79" s="7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K79" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.87341772151898733</v>
+      </c>
+      <c r="L79" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.4050632911392405</v>
+      </c>
+      <c r="M79" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.72151898734177211</v>
+      </c>
+      <c r="N79" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.29113924050632906</v>
+      </c>
+      <c r="O79" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.12658227848101264</v>
+      </c>
+      <c r="P79" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Q79" s="1">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>5.4</v>
       </c>
@@ -3123,8 +5415,8 @@
         <v>1</v>
       </c>
       <c r="H80">
-        <f ca="1">RAND()</f>
-        <v>0.66954116934511754</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>0.51222549546937113</v>
       </c>
       <c r="I80" s="6">
         <v>17</v>
@@ -3132,8 +5424,36 @@
       <c r="J80" s="7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K80" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.68354430379746833</v>
+      </c>
+      <c r="L80" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.49367088607594933</v>
+      </c>
+      <c r="M80" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.16455696202531644</v>
+      </c>
+      <c r="N80" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>5.0632911392405063E-2</v>
+      </c>
+      <c r="O80" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P80" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Q80" s="1">
+        <f t="shared" ca="1" si="10"/>
+        <v>0.12658227848101264</v>
+      </c>
+    </row>
+    <row r="81" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>5.4</v>
       </c>
@@ -3156,8 +5476,8 @@
         <v>0</v>
       </c>
       <c r="H81">
-        <f ca="1">RAND()</f>
-        <v>0.28864673013814524</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>0.15785096873215632</v>
       </c>
       <c r="I81" s="6">
         <v>85</v>
@@ -3165,8 +5485,36 @@
       <c r="J81" s="7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K81" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.68354430379746833</v>
+      </c>
+      <c r="L81" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.37974683544303794</v>
+      </c>
+      <c r="M81" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.56962025316455689</v>
+      </c>
+      <c r="N81" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.18987341772151897</v>
+      </c>
+      <c r="O81" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P81" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.12658227848101264</v>
+      </c>
+      <c r="Q81" s="1">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>4.8</v>
       </c>
@@ -3189,8 +5537,8 @@
         <v>1</v>
       </c>
       <c r="H82">
-        <f ca="1">RAND()</f>
-        <v>0.52021579343106428</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>0.28935718819674761</v>
       </c>
       <c r="I82" s="6">
         <v>25</v>
@@ -3198,8 +5546,36 @@
       <c r="J82" s="7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K82" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.60759493670886067</v>
+      </c>
+      <c r="L82" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.430379746835443</v>
+      </c>
+      <c r="M82" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.24050632911392403</v>
+      </c>
+      <c r="N82" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>2.5316455696202531E-2</v>
+      </c>
+      <c r="O82" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P82" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Q82" s="1">
+        <f t="shared" ca="1" si="10"/>
+        <v>0.12658227848101264</v>
+      </c>
+    </row>
+    <row r="83" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>5.7</v>
       </c>
@@ -3222,8 +5598,8 @@
         <v>0</v>
       </c>
       <c r="H83">
-        <f ca="1">RAND()</f>
-        <v>0.80303441815333287</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>0.37615049042583848</v>
       </c>
       <c r="I83" s="6">
         <v>97</v>
@@ -3231,8 +5607,36 @@
       <c r="J83" s="7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K83" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.72151898734177211</v>
+      </c>
+      <c r="L83" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.36708860759493667</v>
+      </c>
+      <c r="M83" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.53164556962025311</v>
+      </c>
+      <c r="N83" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.16455696202531644</v>
+      </c>
+      <c r="O83" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P83" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.12658227848101264</v>
+      </c>
+      <c r="Q83" s="1">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>5</v>
       </c>
@@ -3255,8 +5659,8 @@
         <v>1</v>
       </c>
       <c r="H84">
-        <f ca="1">RAND()</f>
-        <v>0.79524676648480264</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>0.69041148289411025</v>
       </c>
       <c r="I84" s="6">
         <v>41</v>
@@ -3264,8 +5668,36 @@
       <c r="J84" s="7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K84" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.63291139240506322</v>
+      </c>
+      <c r="L84" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.44303797468354428</v>
+      </c>
+      <c r="M84" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.16455696202531644</v>
+      </c>
+      <c r="N84" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>3.7974683544303792E-2</v>
+      </c>
+      <c r="O84" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P84" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Q84" s="1">
+        <f t="shared" ca="1" si="10"/>
+        <v>0.12658227848101264</v>
+      </c>
+    </row>
+    <row r="85" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>6.2</v>
       </c>
@@ -3288,8 +5720,8 @@
         <v>0</v>
       </c>
       <c r="H85">
-        <f ca="1">RAND()</f>
-        <v>0.49998028186472421</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>0.55351254709928022</v>
       </c>
       <c r="I85" s="6">
         <v>149</v>
@@ -3297,8 +5729,36 @@
       <c r="J85" s="7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K85" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.78481012658227844</v>
+      </c>
+      <c r="L85" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.430379746835443</v>
+      </c>
+      <c r="M85" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.68354430379746833</v>
+      </c>
+      <c r="N85" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.29113924050632906</v>
+      </c>
+      <c r="O85" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.12658227848101264</v>
+      </c>
+      <c r="P85" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Q85" s="1">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>5.4</v>
       </c>
@@ -3321,8 +5781,8 @@
         <v>1</v>
       </c>
       <c r="H86">
-        <f ca="1">RAND()</f>
-        <v>0.32689576848282054</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>0.71481811026918496</v>
       </c>
       <c r="I86" s="6">
         <v>21</v>
@@ -3330,8 +5790,36 @@
       <c r="J86" s="7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K86" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.68354430379746833</v>
+      </c>
+      <c r="L86" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.430379746835443</v>
+      </c>
+      <c r="M86" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.2151898734177215</v>
+      </c>
+      <c r="N86" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>2.5316455696202531E-2</v>
+      </c>
+      <c r="O86" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P86" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Q86" s="1">
+        <f t="shared" ca="1" si="10"/>
+        <v>0.12658227848101264</v>
+      </c>
+    </row>
+    <row r="87" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>5.4</v>
       </c>
@@ -3354,8 +5842,8 @@
         <v>1</v>
       </c>
       <c r="H87">
-        <f ca="1">RAND()</f>
-        <v>0.78363472676148693</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>7.5856182307850184E-2</v>
       </c>
       <c r="I87" s="6">
         <v>32</v>
@@ -3363,8 +5851,36 @@
       <c r="J87" s="7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K87" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.68354430379746833</v>
+      </c>
+      <c r="L87" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.430379746835443</v>
+      </c>
+      <c r="M87" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.18987341772151897</v>
+      </c>
+      <c r="N87" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>5.0632911392405063E-2</v>
+      </c>
+      <c r="O87" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P87" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Q87" s="1">
+        <f t="shared" ca="1" si="10"/>
+        <v>0.12658227848101264</v>
+      </c>
+    </row>
+    <row r="88" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>6.2</v>
       </c>
@@ -3387,8 +5903,8 @@
         <v>0</v>
       </c>
       <c r="H88">
-        <f ca="1">RAND()</f>
-        <v>0.65652949296389151</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>0.71729954552814612</v>
       </c>
       <c r="I88" s="6">
         <v>69</v>
@@ -3396,8 +5912,36 @@
       <c r="J88" s="7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K88" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.78481012658227844</v>
+      </c>
+      <c r="L88" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.27848101265822783</v>
+      </c>
+      <c r="M88" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.56962025316455689</v>
+      </c>
+      <c r="N88" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.18987341772151897</v>
+      </c>
+      <c r="O88" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P88" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.12658227848101264</v>
+      </c>
+      <c r="Q88" s="1">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>4.5999999999999996</v>
       </c>
@@ -3420,8 +5964,8 @@
         <v>1</v>
       </c>
       <c r="H89">
-        <f ca="1">RAND()</f>
-        <v>0.140353211246381</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>0.68147894133560971</v>
       </c>
       <c r="I89" s="6">
         <v>48</v>
@@ -3429,8 +5973,36 @@
       <c r="J89" s="7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K89" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.58227848101265811</v>
+      </c>
+      <c r="L89" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.4050632911392405</v>
+      </c>
+      <c r="M89" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.17721518987341769</v>
+      </c>
+      <c r="N89" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>2.5316455696202531E-2</v>
+      </c>
+      <c r="O89" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P89" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Q89" s="1">
+        <f t="shared" ca="1" si="10"/>
+        <v>0.12658227848101264</v>
+      </c>
+    </row>
+    <row r="90" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>5.8</v>
       </c>
@@ -3453,8 +6025,8 @@
         <v>0</v>
       </c>
       <c r="H90">
-        <f ca="1">RAND()</f>
-        <v>0.9793801341471553</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>0.6299796748761588</v>
       </c>
       <c r="I90" s="6">
         <v>143</v>
@@ -3462,8 +6034,36 @@
       <c r="J90" s="7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K90" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.73417721518987333</v>
+      </c>
+      <c r="L90" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.34177215189873417</v>
+      </c>
+      <c r="M90" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.64556962025316444</v>
+      </c>
+      <c r="N90" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.24050632911392403</v>
+      </c>
+      <c r="O90" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.12658227848101264</v>
+      </c>
+      <c r="P90" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Q90" s="1">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>5.6</v>
       </c>
@@ -3486,8 +6086,8 @@
         <v>0</v>
       </c>
       <c r="H91">
-        <f ca="1">RAND()</f>
-        <v>3.6014009249323298E-3</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>0.72310671285442207</v>
       </c>
       <c r="I91" s="6">
         <v>122</v>
@@ -3495,8 +6095,36 @@
       <c r="J91" s="7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K91" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.70886075949367078</v>
+      </c>
+      <c r="L91" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.35443037974683539</v>
+      </c>
+      <c r="M91" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.620253164556962</v>
+      </c>
+      <c r="N91" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.25316455696202528</v>
+      </c>
+      <c r="O91" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.12658227848101264</v>
+      </c>
+      <c r="P91" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Q91" s="1">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>6.4</v>
       </c>
@@ -3519,8 +6147,8 @@
         <v>0</v>
       </c>
       <c r="H92">
-        <f ca="1">RAND()</f>
-        <v>0.63017382934117205</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>0.6239010562485956</v>
       </c>
       <c r="I92" s="6">
         <v>116</v>
@@ -3528,8 +6156,36 @@
       <c r="J92" s="7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K92" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.810126582278481</v>
+      </c>
+      <c r="L92" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.4050632911392405</v>
+      </c>
+      <c r="M92" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.670886075949367</v>
+      </c>
+      <c r="N92" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.29113924050632906</v>
+      </c>
+      <c r="O92" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.12658227848101264</v>
+      </c>
+      <c r="P92" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Q92" s="1">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>7.7</v>
       </c>
@@ -3552,8 +6208,8 @@
         <v>0</v>
       </c>
       <c r="H93">
-        <f ca="1">RAND()</f>
-        <v>0.13203818977039061</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>0.17135000335071837</v>
       </c>
       <c r="I93" s="6">
         <v>136</v>
@@ -3561,8 +6217,36 @@
       <c r="J93" s="7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K93" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.97468354430379744</v>
+      </c>
+      <c r="L93" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.37974683544303794</v>
+      </c>
+      <c r="M93" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.77215189873417711</v>
+      </c>
+      <c r="N93" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.29113924050632906</v>
+      </c>
+      <c r="O93" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.12658227848101264</v>
+      </c>
+      <c r="P93" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Q93" s="1">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>5</v>
       </c>
@@ -3585,8 +6269,8 @@
         <v>1</v>
       </c>
       <c r="H94">
-        <f ca="1">RAND()</f>
-        <v>0.32133092769921423</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>0.45908178513203302</v>
       </c>
       <c r="I94" s="6">
         <v>26</v>
@@ -3594,8 +6278,36 @@
       <c r="J94" s="7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K94" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.63291139240506322</v>
+      </c>
+      <c r="L94" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.37974683544303794</v>
+      </c>
+      <c r="M94" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.20253164556962025</v>
+      </c>
+      <c r="N94" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>2.5316455696202531E-2</v>
+      </c>
+      <c r="O94" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P94" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Q94" s="1">
+        <f t="shared" ca="1" si="10"/>
+        <v>0.12658227848101264</v>
+      </c>
+    </row>
+    <row r="95" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>6.8</v>
       </c>
@@ -3618,8 +6330,8 @@
         <v>0</v>
       </c>
       <c r="H95">
-        <f ca="1">RAND()</f>
-        <v>0.74835401128552548</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>0.40413971123022885</v>
       </c>
       <c r="I95" s="6">
         <v>77</v>
@@ -3627,8 +6339,36 @@
       <c r="J95" s="7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K95" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.860759493670886</v>
+      </c>
+      <c r="L95" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.35443037974683539</v>
+      </c>
+      <c r="M95" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.60759493670886067</v>
+      </c>
+      <c r="N95" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.17721518987341769</v>
+      </c>
+      <c r="O95" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P95" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.12658227848101264</v>
+      </c>
+      <c r="Q95" s="1">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>5.2</v>
       </c>
@@ -3651,8 +6391,8 @@
         <v>1</v>
       </c>
       <c r="H96">
-        <f ca="1">RAND()</f>
-        <v>0.88853678390494906</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>0.10334307250913333</v>
       </c>
       <c r="I96" s="6">
         <v>29</v>
@@ -3660,8 +6400,36 @@
       <c r="J96" s="7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K96" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.65822784810126578</v>
+      </c>
+      <c r="L96" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.430379746835443</v>
+      </c>
+      <c r="M96" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.17721518987341769</v>
+      </c>
+      <c r="N96" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>2.5316455696202531E-2</v>
+      </c>
+      <c r="O96" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P96" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Q96" s="1">
+        <f t="shared" ca="1" si="10"/>
+        <v>0.12658227848101264</v>
+      </c>
+    </row>
+    <row r="97" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>4.5</v>
       </c>
@@ -3684,8 +6452,8 @@
         <v>1</v>
       </c>
       <c r="H97">
-        <f ca="1">RAND()</f>
-        <v>0.90055187160408845</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>0.12038051699953056</v>
       </c>
       <c r="I97" s="6">
         <v>42</v>
@@ -3693,8 +6461,36 @@
       <c r="J97" s="7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K97" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.56962025316455689</v>
+      </c>
+      <c r="L97" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.29113924050632906</v>
+      </c>
+      <c r="M97" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.16455696202531644</v>
+      </c>
+      <c r="N97" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>3.7974683544303792E-2</v>
+      </c>
+      <c r="O97" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P97" s="1">
+        <f t="shared" ref="P97:Q151" ca="1" si="11">(F97-MIN($A:$H))/(MAX($A:$H)-MIN($A:$H))</f>
+        <v>0</v>
+      </c>
+      <c r="Q97" s="1">
+        <f t="shared" ca="1" si="10"/>
+        <v>0.12658227848101264</v>
+      </c>
+    </row>
+    <row r="98" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>5.3</v>
       </c>
@@ -3717,8 +6513,8 @@
         <v>1</v>
       </c>
       <c r="H98">
-        <f ca="1">RAND()</f>
-        <v>0.73004233003958308</v>
+        <f t="shared" ref="H98:H129" ca="1" si="12">RAND()</f>
+        <v>0.66289311856791611</v>
       </c>
       <c r="I98" s="6">
         <v>49</v>
@@ -3726,8 +6522,36 @@
       <c r="J98" s="7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K98" s="1">
+        <f t="shared" ref="K98:O151" ca="1" si="13">(A98-MIN($A:$H))/(MAX($A:$H)-MIN($A:$H))</f>
+        <v>0.670886075949367</v>
+      </c>
+      <c r="L98" s="1">
+        <f t="shared" ca="1" si="13"/>
+        <v>0.46835443037974683</v>
+      </c>
+      <c r="M98" s="1">
+        <f t="shared" ca="1" si="13"/>
+        <v>0.18987341772151897</v>
+      </c>
+      <c r="N98" s="1">
+        <f t="shared" ca="1" si="13"/>
+        <v>2.5316455696202531E-2</v>
+      </c>
+      <c r="O98" s="1">
+        <f t="shared" ca="1" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="P98" s="1">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Q98" s="1">
+        <f t="shared" ca="1" si="10"/>
+        <v>0.12658227848101264</v>
+      </c>
+    </row>
+    <row r="99" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>6.4</v>
       </c>
@@ -3750,8 +6574,8 @@
         <v>0</v>
       </c>
       <c r="H99">
-        <f ca="1">RAND()</f>
-        <v>0.18896145712437729</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>0.29361822490757183</v>
       </c>
       <c r="I99" s="6">
         <v>138</v>
@@ -3759,8 +6583,36 @@
       <c r="J99" s="7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K99" s="1">
+        <f t="shared" ca="1" si="13"/>
+        <v>0.810126582278481</v>
+      </c>
+      <c r="L99" s="1">
+        <f t="shared" ca="1" si="13"/>
+        <v>0.39240506329113922</v>
+      </c>
+      <c r="M99" s="1">
+        <f t="shared" ca="1" si="13"/>
+        <v>0.69620253164556956</v>
+      </c>
+      <c r="N99" s="1">
+        <f t="shared" ca="1" si="13"/>
+        <v>0.22784810126582278</v>
+      </c>
+      <c r="O99" s="1">
+        <f t="shared" ca="1" si="13"/>
+        <v>0.12658227848101264</v>
+      </c>
+      <c r="P99" s="1">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Q99" s="1">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>4.8</v>
       </c>
@@ -3783,8 +6635,8 @@
         <v>1</v>
       </c>
       <c r="H100">
-        <f ca="1">RAND()</f>
-        <v>0.31581047770308524</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>0.17029921731368791</v>
       </c>
       <c r="I100" s="6">
         <v>31</v>
@@ -3792,8 +6644,36 @@
       <c r="J100" s="7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K100" s="1">
+        <f t="shared" ca="1" si="13"/>
+        <v>0.60759493670886067</v>
+      </c>
+      <c r="L100" s="1">
+        <f t="shared" ca="1" si="13"/>
+        <v>0.39240506329113922</v>
+      </c>
+      <c r="M100" s="1">
+        <f t="shared" ca="1" si="13"/>
+        <v>0.20253164556962025</v>
+      </c>
+      <c r="N100" s="1">
+        <f t="shared" ca="1" si="13"/>
+        <v>2.5316455696202531E-2</v>
+      </c>
+      <c r="O100" s="1">
+        <f t="shared" ca="1" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="P100" s="1">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Q100" s="1">
+        <f t="shared" ca="1" si="10"/>
+        <v>0.12658227848101264</v>
+      </c>
+    </row>
+    <row r="101" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>5.0999999999999996</v>
       </c>
@@ -3816,8 +6696,8 @@
         <v>1</v>
       </c>
       <c r="H101">
-        <f ca="1">RAND()</f>
-        <v>0.76676565544016251</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>0.43029515360088511</v>
       </c>
       <c r="I101" s="6">
         <v>1</v>
@@ -3825,8 +6705,36 @@
       <c r="J101" s="7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K101" s="1">
+        <f t="shared" ca="1" si="13"/>
+        <v>0.64556962025316444</v>
+      </c>
+      <c r="L101" s="1">
+        <f t="shared" ca="1" si="13"/>
+        <v>0.44303797468354428</v>
+      </c>
+      <c r="M101" s="1">
+        <f t="shared" ca="1" si="13"/>
+        <v>0.17721518987341769</v>
+      </c>
+      <c r="N101" s="1">
+        <f t="shared" ca="1" si="13"/>
+        <v>2.5316455696202531E-2</v>
+      </c>
+      <c r="O101" s="1">
+        <f t="shared" ca="1" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="P101" s="1">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Q101" s="1">
+        <f t="shared" ca="1" si="10"/>
+        <v>0.12658227848101264</v>
+      </c>
+    </row>
+    <row r="102" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>5.8</v>
       </c>
@@ -3849,8 +6757,8 @@
         <v>0</v>
       </c>
       <c r="H102">
-        <f ca="1">RAND()</f>
-        <v>0.42118903010222108</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>0.84581691694497463</v>
       </c>
       <c r="I102" s="6">
         <v>93</v>
@@ -3858,8 +6766,36 @@
       <c r="J102" s="7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K102" s="1">
+        <f t="shared" ca="1" si="13"/>
+        <v>0.73417721518987333</v>
+      </c>
+      <c r="L102" s="1">
+        <f t="shared" ca="1" si="13"/>
+        <v>0.32911392405063289</v>
+      </c>
+      <c r="M102" s="1">
+        <f t="shared" ca="1" si="13"/>
+        <v>0.50632911392405056</v>
+      </c>
+      <c r="N102" s="1">
+        <f t="shared" ca="1" si="13"/>
+        <v>0.15189873417721517</v>
+      </c>
+      <c r="O102" s="1">
+        <f t="shared" ca="1" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="P102" s="1">
+        <f t="shared" ca="1" si="11"/>
+        <v>0.12658227848101264</v>
+      </c>
+      <c r="Q102" s="1">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>6.4</v>
       </c>
@@ -3882,8 +6818,8 @@
         <v>0</v>
       </c>
       <c r="H103">
-        <f ca="1">RAND()</f>
-        <v>0.63634280238373464</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>0.27761957663813752</v>
       </c>
       <c r="I103" s="6">
         <v>75</v>
@@ -3891,8 +6827,36 @@
       <c r="J103" s="7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K103" s="1">
+        <f t="shared" ca="1" si="13"/>
+        <v>0.810126582278481</v>
+      </c>
+      <c r="L103" s="1">
+        <f t="shared" ca="1" si="13"/>
+        <v>0.36708860759493667</v>
+      </c>
+      <c r="M103" s="1">
+        <f t="shared" ca="1" si="13"/>
+        <v>0.54430379746835433</v>
+      </c>
+      <c r="N103" s="1">
+        <f t="shared" ca="1" si="13"/>
+        <v>0.16455696202531644</v>
+      </c>
+      <c r="O103" s="1">
+        <f t="shared" ca="1" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="P103" s="1">
+        <f t="shared" ca="1" si="11"/>
+        <v>0.12658227848101264</v>
+      </c>
+      <c r="Q103" s="1">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>5.0999999999999996</v>
       </c>
@@ -3915,8 +6879,8 @@
         <v>1</v>
       </c>
       <c r="H104">
-        <f ca="1">RAND()</f>
-        <v>0.56883236734489506</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>0.27731795875690646</v>
       </c>
       <c r="I104" s="6">
         <v>40</v>
@@ -3924,8 +6888,36 @@
       <c r="J104" s="7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K104" s="1">
+        <f t="shared" ca="1" si="13"/>
+        <v>0.64556962025316444</v>
+      </c>
+      <c r="L104" s="1">
+        <f t="shared" ca="1" si="13"/>
+        <v>0.430379746835443</v>
+      </c>
+      <c r="M104" s="1">
+        <f t="shared" ca="1" si="13"/>
+        <v>0.18987341772151897</v>
+      </c>
+      <c r="N104" s="1">
+        <f t="shared" ca="1" si="13"/>
+        <v>2.5316455696202531E-2</v>
+      </c>
+      <c r="O104" s="1">
+        <f t="shared" ca="1" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="P104" s="1">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Q104" s="1">
+        <f t="shared" ca="1" si="10"/>
+        <v>0.12658227848101264</v>
+      </c>
+    </row>
+    <row r="105" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>4.9000000000000004</v>
       </c>
@@ -3948,8 +6940,8 @@
         <v>1</v>
       </c>
       <c r="H105">
-        <f ca="1">RAND()</f>
-        <v>0.76531602490555528</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>0.34081647990998376</v>
       </c>
       <c r="I105" s="6">
         <v>10</v>
@@ -3957,8 +6949,36 @@
       <c r="J105" s="7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K105" s="1">
+        <f t="shared" ca="1" si="13"/>
+        <v>0.620253164556962</v>
+      </c>
+      <c r="L105" s="1">
+        <f t="shared" ca="1" si="13"/>
+        <v>0.39240506329113922</v>
+      </c>
+      <c r="M105" s="1">
+        <f t="shared" ca="1" si="13"/>
+        <v>0.18987341772151897</v>
+      </c>
+      <c r="N105" s="1">
+        <f t="shared" ca="1" si="13"/>
+        <v>1.2658227848101266E-2</v>
+      </c>
+      <c r="O105" s="1">
+        <f t="shared" ca="1" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="P105" s="1">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Q105" s="1">
+        <f t="shared" ca="1" si="10"/>
+        <v>0.12658227848101264</v>
+      </c>
+    </row>
+    <row r="106" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>5.5</v>
       </c>
@@ -3981,8 +7001,8 @@
         <v>0</v>
       </c>
       <c r="H106">
-        <f ca="1">RAND()</f>
-        <v>0.78042386864109115</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>2.3415278692162644E-2</v>
       </c>
       <c r="I106" s="6">
         <v>54</v>
@@ -3990,8 +7010,36 @@
       <c r="J106" s="7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K106" s="1">
+        <f t="shared" ca="1" si="13"/>
+        <v>0.69620253164556956</v>
+      </c>
+      <c r="L106" s="1">
+        <f t="shared" ca="1" si="13"/>
+        <v>0.29113924050632906</v>
+      </c>
+      <c r="M106" s="1">
+        <f t="shared" ca="1" si="13"/>
+        <v>0.50632911392405056</v>
+      </c>
+      <c r="N106" s="1">
+        <f t="shared" ca="1" si="13"/>
+        <v>0.16455696202531644</v>
+      </c>
+      <c r="O106" s="1">
+        <f t="shared" ca="1" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="P106" s="1">
+        <f t="shared" ca="1" si="11"/>
+        <v>0.12658227848101264</v>
+      </c>
+      <c r="Q106" s="1">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>5.4</v>
       </c>
@@ -4014,8 +7062,8 @@
         <v>1</v>
       </c>
       <c r="H107">
-        <f ca="1">RAND()</f>
-        <v>0.51282964750387416</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>0.37320458729390793</v>
       </c>
       <c r="I107" s="6">
         <v>11</v>
@@ -4023,8 +7071,36 @@
       <c r="J107" s="7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K107" s="1">
+        <f t="shared" ca="1" si="13"/>
+        <v>0.68354430379746833</v>
+      </c>
+      <c r="L107" s="1">
+        <f t="shared" ca="1" si="13"/>
+        <v>0.46835443037974683</v>
+      </c>
+      <c r="M107" s="1">
+        <f t="shared" ca="1" si="13"/>
+        <v>0.18987341772151897</v>
+      </c>
+      <c r="N107" s="1">
+        <f t="shared" ca="1" si="13"/>
+        <v>2.5316455696202531E-2</v>
+      </c>
+      <c r="O107" s="1">
+        <f t="shared" ca="1" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="P107" s="1">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Q107" s="1">
+        <f t="shared" ca="1" si="10"/>
+        <v>0.12658227848101264</v>
+      </c>
+    </row>
+    <row r="108" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>5.7</v>
       </c>
@@ -4047,8 +7123,8 @@
         <v>0</v>
       </c>
       <c r="H108">
-        <f ca="1">RAND()</f>
-        <v>0.51042372382512358</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>0.37968599924281987</v>
       </c>
       <c r="I108" s="6">
         <v>56</v>
@@ -4056,8 +7132,36 @@
       <c r="J108" s="7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K108" s="1">
+        <f t="shared" ca="1" si="13"/>
+        <v>0.72151898734177211</v>
+      </c>
+      <c r="L108" s="1">
+        <f t="shared" ca="1" si="13"/>
+        <v>0.35443037974683539</v>
+      </c>
+      <c r="M108" s="1">
+        <f t="shared" ca="1" si="13"/>
+        <v>0.56962025316455689</v>
+      </c>
+      <c r="N108" s="1">
+        <f t="shared" ca="1" si="13"/>
+        <v>0.16455696202531644</v>
+      </c>
+      <c r="O108" s="1">
+        <f t="shared" ca="1" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="P108" s="1">
+        <f t="shared" ca="1" si="11"/>
+        <v>0.12658227848101264</v>
+      </c>
+      <c r="Q108" s="1">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>6.3</v>
       </c>
@@ -4080,8 +7184,8 @@
         <v>0</v>
       </c>
       <c r="H109">
-        <f ca="1">RAND()</f>
-        <v>0.56017639082437465</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>0.91151142391728524</v>
       </c>
       <c r="I109" s="6">
         <v>101</v>
@@ -4089,8 +7193,36 @@
       <c r="J109" s="7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K109" s="1">
+        <f t="shared" ca="1" si="13"/>
+        <v>0.79746835443037967</v>
+      </c>
+      <c r="L109" s="1">
+        <f t="shared" ca="1" si="13"/>
+        <v>0.41772151898734172</v>
+      </c>
+      <c r="M109" s="1">
+        <f t="shared" ca="1" si="13"/>
+        <v>0.75949367088607589</v>
+      </c>
+      <c r="N109" s="1">
+        <f t="shared" ca="1" si="13"/>
+        <v>0.31645569620253161</v>
+      </c>
+      <c r="O109" s="1">
+        <f t="shared" ca="1" si="13"/>
+        <v>0.12658227848101264</v>
+      </c>
+      <c r="P109" s="1">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Q109" s="1">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>6.5</v>
       </c>
@@ -4113,8 +7245,8 @@
         <v>0</v>
       </c>
       <c r="H110">
-        <f ca="1">RAND()</f>
-        <v>0.82632946409413699</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>5.6800673773198529E-3</v>
       </c>
       <c r="I110" s="6">
         <v>111</v>
@@ -4122,8 +7254,36 @@
       <c r="J110" s="7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K110" s="1">
+        <f t="shared" ca="1" si="13"/>
+        <v>0.82278481012658222</v>
+      </c>
+      <c r="L110" s="1">
+        <f t="shared" ca="1" si="13"/>
+        <v>0.4050632911392405</v>
+      </c>
+      <c r="M110" s="1">
+        <f t="shared" ca="1" si="13"/>
+        <v>0.64556962025316444</v>
+      </c>
+      <c r="N110" s="1">
+        <f t="shared" ca="1" si="13"/>
+        <v>0.25316455696202528</v>
+      </c>
+      <c r="O110" s="1">
+        <f t="shared" ca="1" si="13"/>
+        <v>0.12658227848101264</v>
+      </c>
+      <c r="P110" s="1">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Q110" s="1">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>5.0999999999999996</v>
       </c>
@@ -4146,8 +7306,8 @@
         <v>1</v>
       </c>
       <c r="H111">
-        <f ca="1">RAND()</f>
-        <v>0.96866030322059005</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>0.24572906045884135</v>
       </c>
       <c r="I111" s="6">
         <v>20</v>
@@ -4155,8 +7315,36 @@
       <c r="J111" s="7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K111" s="1">
+        <f t="shared" ca="1" si="13"/>
+        <v>0.64556962025316444</v>
+      </c>
+      <c r="L111" s="1">
+        <f t="shared" ca="1" si="13"/>
+        <v>0.48101265822784806</v>
+      </c>
+      <c r="M111" s="1">
+        <f t="shared" ca="1" si="13"/>
+        <v>0.18987341772151897</v>
+      </c>
+      <c r="N111" s="1">
+        <f t="shared" ca="1" si="13"/>
+        <v>3.7974683544303792E-2</v>
+      </c>
+      <c r="O111" s="1">
+        <f t="shared" ca="1" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="P111" s="1">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Q111" s="1">
+        <f t="shared" ca="1" si="10"/>
+        <v>0.12658227848101264</v>
+      </c>
+    </row>
+    <row r="112" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>6.9</v>
       </c>
@@ -4179,8 +7367,8 @@
         <v>0</v>
       </c>
       <c r="H112">
-        <f ca="1">RAND()</f>
-        <v>0.5425126529983556</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>0.14196210785309782</v>
       </c>
       <c r="I112" s="6">
         <v>53</v>
@@ -4188,8 +7376,36 @@
       <c r="J112" s="7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K112" s="1">
+        <f t="shared" ca="1" si="13"/>
+        <v>0.87341772151898733</v>
+      </c>
+      <c r="L112" s="1">
+        <f t="shared" ca="1" si="13"/>
+        <v>0.39240506329113922</v>
+      </c>
+      <c r="M112" s="1">
+        <f t="shared" ca="1" si="13"/>
+        <v>0.620253164556962</v>
+      </c>
+      <c r="N112" s="1">
+        <f t="shared" ca="1" si="13"/>
+        <v>0.18987341772151897</v>
+      </c>
+      <c r="O112" s="1">
+        <f t="shared" ca="1" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="P112" s="1">
+        <f t="shared" ca="1" si="11"/>
+        <v>0.12658227848101264</v>
+      </c>
+      <c r="Q112" s="1">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>5.5</v>
       </c>
@@ -4212,8 +7428,8 @@
         <v>0</v>
       </c>
       <c r="H113">
-        <f ca="1">RAND()</f>
-        <v>0.89980162905531968</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>0.10589430471497885</v>
       </c>
       <c r="I113" s="6">
         <v>81</v>
@@ -4221,8 +7437,36 @@
       <c r="J113" s="7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K113" s="1">
+        <f t="shared" ca="1" si="13"/>
+        <v>0.69620253164556956</v>
+      </c>
+      <c r="L113" s="1">
+        <f t="shared" ca="1" si="13"/>
+        <v>0.30379746835443033</v>
+      </c>
+      <c r="M113" s="1">
+        <f t="shared" ca="1" si="13"/>
+        <v>0.48101265822784806</v>
+      </c>
+      <c r="N113" s="1">
+        <f t="shared" ca="1" si="13"/>
+        <v>0.13924050632911392</v>
+      </c>
+      <c r="O113" s="1">
+        <f t="shared" ca="1" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="P113" s="1">
+        <f t="shared" ca="1" si="11"/>
+        <v>0.12658227848101264</v>
+      </c>
+      <c r="Q113" s="1">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>5.5</v>
       </c>
@@ -4245,8 +7489,8 @@
         <v>0</v>
       </c>
       <c r="H114">
-        <f ca="1">RAND()</f>
-        <v>0.85236061767306459</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>0.52252957754488782</v>
       </c>
       <c r="I114" s="6">
         <v>90</v>
@@ -4254,8 +7498,36 @@
       <c r="J114" s="7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K114" s="1">
+        <f t="shared" ca="1" si="13"/>
+        <v>0.69620253164556956</v>
+      </c>
+      <c r="L114" s="1">
+        <f t="shared" ca="1" si="13"/>
+        <v>0.31645569620253161</v>
+      </c>
+      <c r="M114" s="1">
+        <f t="shared" ca="1" si="13"/>
+        <v>0.50632911392405056</v>
+      </c>
+      <c r="N114" s="1">
+        <f t="shared" ca="1" si="13"/>
+        <v>0.16455696202531644</v>
+      </c>
+      <c r="O114" s="1">
+        <f t="shared" ca="1" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="P114" s="1">
+        <f t="shared" ca="1" si="11"/>
+        <v>0.12658227848101264</v>
+      </c>
+      <c r="Q114" s="1">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>6.3</v>
       </c>
@@ -4278,8 +7550,8 @@
         <v>0</v>
       </c>
       <c r="H115">
-        <f ca="1">RAND()</f>
-        <v>0.68376162446045263</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>0.91329095075953315</v>
       </c>
       <c r="I115" s="6">
         <v>104</v>
@@ -4287,8 +7559,36 @@
       <c r="J115" s="7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K115" s="1">
+        <f t="shared" ca="1" si="13"/>
+        <v>0.79746835443037967</v>
+      </c>
+      <c r="L115" s="1">
+        <f t="shared" ca="1" si="13"/>
+        <v>0.36708860759493667</v>
+      </c>
+      <c r="M115" s="1">
+        <f t="shared" ca="1" si="13"/>
+        <v>0.70886075949367078</v>
+      </c>
+      <c r="N115" s="1">
+        <f t="shared" ca="1" si="13"/>
+        <v>0.22784810126582278</v>
+      </c>
+      <c r="O115" s="1">
+        <f t="shared" ca="1" si="13"/>
+        <v>0.12658227848101264</v>
+      </c>
+      <c r="P115" s="1">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Q115" s="1">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>5.5</v>
       </c>
@@ -4311,8 +7611,8 @@
         <v>1</v>
       </c>
       <c r="H116">
-        <f ca="1">RAND()</f>
-        <v>0.19827850975859285</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>0.13540089540353906</v>
       </c>
       <c r="I116" s="6">
         <v>37</v>
@@ -4320,8 +7620,36 @@
       <c r="J116" s="7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K116" s="1">
+        <f t="shared" ca="1" si="13"/>
+        <v>0.69620253164556956</v>
+      </c>
+      <c r="L116" s="1">
+        <f t="shared" ca="1" si="13"/>
+        <v>0.44303797468354428</v>
+      </c>
+      <c r="M116" s="1">
+        <f t="shared" ca="1" si="13"/>
+        <v>0.16455696202531644</v>
+      </c>
+      <c r="N116" s="1">
+        <f t="shared" ca="1" si="13"/>
+        <v>2.5316455696202531E-2</v>
+      </c>
+      <c r="O116" s="1">
+        <f t="shared" ca="1" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="P116" s="1">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Q116" s="1">
+        <f t="shared" ca="1" si="10"/>
+        <v>0.12658227848101264</v>
+      </c>
+    </row>
+    <row r="117" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>5.0999999999999996</v>
       </c>
@@ -4344,8 +7672,8 @@
         <v>1</v>
       </c>
       <c r="H117">
-        <f ca="1">RAND()</f>
-        <v>0.98891744230138923</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>0.91907387973612775</v>
       </c>
       <c r="I117" s="6">
         <v>22</v>
@@ -4353,8 +7681,36 @@
       <c r="J117" s="7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K117" s="1">
+        <f t="shared" ca="1" si="13"/>
+        <v>0.64556962025316444</v>
+      </c>
+      <c r="L117" s="1">
+        <f t="shared" ca="1" si="13"/>
+        <v>0.46835443037974683</v>
+      </c>
+      <c r="M117" s="1">
+        <f t="shared" ca="1" si="13"/>
+        <v>0.18987341772151897</v>
+      </c>
+      <c r="N117" s="1">
+        <f t="shared" ca="1" si="13"/>
+        <v>5.0632911392405063E-2</v>
+      </c>
+      <c r="O117" s="1">
+        <f t="shared" ca="1" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="P117" s="1">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Q117" s="1">
+        <f t="shared" ca="1" si="10"/>
+        <v>0.12658227848101264</v>
+      </c>
+    </row>
+    <row r="118" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>4.9000000000000004</v>
       </c>
@@ -4377,8 +7733,8 @@
         <v>1</v>
       </c>
       <c r="H118">
-        <f ca="1">RAND()</f>
-        <v>5.7216276396135912E-3</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>0.62893738057367354</v>
       </c>
       <c r="I118" s="6">
         <v>35</v>
@@ -4386,8 +7742,36 @@
       <c r="J118" s="7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K118" s="1">
+        <f t="shared" ca="1" si="13"/>
+        <v>0.620253164556962</v>
+      </c>
+      <c r="L118" s="1">
+        <f t="shared" ca="1" si="13"/>
+        <v>0.39240506329113922</v>
+      </c>
+      <c r="M118" s="1">
+        <f t="shared" ca="1" si="13"/>
+        <v>0.18987341772151897</v>
+      </c>
+      <c r="N118" s="1">
+        <f t="shared" ca="1" si="13"/>
+        <v>1.2658227848101266E-2</v>
+      </c>
+      <c r="O118" s="1">
+        <f t="shared" ca="1" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="P118" s="1">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Q118" s="1">
+        <f t="shared" ca="1" si="10"/>
+        <v>0.12658227848101264</v>
+      </c>
+    </row>
+    <row r="119" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>4.7</v>
       </c>
@@ -4410,8 +7794,8 @@
         <v>1</v>
       </c>
       <c r="H119">
-        <f ca="1">RAND()</f>
-        <v>0.44499451694851011</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>0.58793413493211932</v>
       </c>
       <c r="I119" s="6">
         <v>3</v>
@@ -4419,8 +7803,36 @@
       <c r="J119" s="7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K119" s="1">
+        <f t="shared" ca="1" si="13"/>
+        <v>0.59493670886075944</v>
+      </c>
+      <c r="L119" s="1">
+        <f t="shared" ca="1" si="13"/>
+        <v>0.4050632911392405</v>
+      </c>
+      <c r="M119" s="1">
+        <f t="shared" ca="1" si="13"/>
+        <v>0.16455696202531644</v>
+      </c>
+      <c r="N119" s="1">
+        <f t="shared" ca="1" si="13"/>
+        <v>2.5316455696202531E-2</v>
+      </c>
+      <c r="O119" s="1">
+        <f t="shared" ca="1" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="P119" s="1">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Q119" s="1">
+        <f t="shared" ca="1" si="10"/>
+        <v>0.12658227848101264</v>
+      </c>
+    </row>
+    <row r="120" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>6</v>
       </c>
@@ -4443,8 +7855,8 @@
         <v>0</v>
       </c>
       <c r="H120">
-        <f ca="1">RAND()</f>
-        <v>0.92750489725744634</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>0.7956117085784401</v>
       </c>
       <c r="I120" s="6">
         <v>86</v>
@@ -4452,8 +7864,36 @@
       <c r="J120" s="7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K120" s="1">
+        <f t="shared" ca="1" si="13"/>
+        <v>0.75949367088607589</v>
+      </c>
+      <c r="L120" s="1">
+        <f t="shared" ca="1" si="13"/>
+        <v>0.430379746835443</v>
+      </c>
+      <c r="M120" s="1">
+        <f t="shared" ca="1" si="13"/>
+        <v>0.56962025316455689</v>
+      </c>
+      <c r="N120" s="1">
+        <f t="shared" ca="1" si="13"/>
+        <v>0.20253164556962025</v>
+      </c>
+      <c r="O120" s="1">
+        <f t="shared" ca="1" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="P120" s="1">
+        <f t="shared" ca="1" si="11"/>
+        <v>0.12658227848101264</v>
+      </c>
+      <c r="Q120" s="1">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>5</v>
       </c>
@@ -4476,8 +7916,8 @@
         <v>1</v>
       </c>
       <c r="H121">
-        <f ca="1">RAND()</f>
-        <v>0.63224431511674772</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>9.5252213875433478E-2</v>
       </c>
       <c r="I121" s="6">
         <v>50</v>
@@ -4485,8 +7925,36 @@
       <c r="J121" s="7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K121" s="1">
+        <f t="shared" ca="1" si="13"/>
+        <v>0.63291139240506322</v>
+      </c>
+      <c r="L121" s="1">
+        <f t="shared" ca="1" si="13"/>
+        <v>0.41772151898734172</v>
+      </c>
+      <c r="M121" s="1">
+        <f t="shared" ca="1" si="13"/>
+        <v>0.17721518987341769</v>
+      </c>
+      <c r="N121" s="1">
+        <f t="shared" ca="1" si="13"/>
+        <v>2.5316455696202531E-2</v>
+      </c>
+      <c r="O121" s="1">
+        <f t="shared" ca="1" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="P121" s="1">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Q121" s="1">
+        <f t="shared" ca="1" si="10"/>
+        <v>0.12658227848101264</v>
+      </c>
+    </row>
+    <row r="122" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>5.9</v>
       </c>
@@ -4509,8 +7977,8 @@
         <v>0</v>
       </c>
       <c r="H122">
-        <f ca="1">RAND()</f>
-        <v>0.82591318711563277</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>0.42167544376957466</v>
       </c>
       <c r="I122" s="6">
         <v>71</v>
@@ -4518,8 +7986,36 @@
       <c r="J122" s="7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K122" s="1">
+        <f t="shared" ca="1" si="13"/>
+        <v>0.74683544303797467</v>
+      </c>
+      <c r="L122" s="1">
+        <f t="shared" ca="1" si="13"/>
+        <v>0.4050632911392405</v>
+      </c>
+      <c r="M122" s="1">
+        <f t="shared" ca="1" si="13"/>
+        <v>0.60759493670886067</v>
+      </c>
+      <c r="N122" s="1">
+        <f t="shared" ca="1" si="13"/>
+        <v>0.22784810126582278</v>
+      </c>
+      <c r="O122" s="1">
+        <f t="shared" ca="1" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="P122" s="1">
+        <f t="shared" ca="1" si="11"/>
+        <v>0.12658227848101264</v>
+      </c>
+      <c r="Q122" s="1">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>7.7</v>
       </c>
@@ -4542,8 +8038,8 @@
         <v>0</v>
       </c>
       <c r="H123">
-        <f ca="1">RAND()</f>
-        <v>0.47871454591238272</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>0.10998877607933744</v>
       </c>
       <c r="I123" s="6">
         <v>118</v>
@@ -4551,8 +8047,36 @@
       <c r="J123" s="7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K123" s="1">
+        <f t="shared" ca="1" si="13"/>
+        <v>0.97468354430379744</v>
+      </c>
+      <c r="L123" s="1">
+        <f t="shared" ca="1" si="13"/>
+        <v>0.48101265822784806</v>
+      </c>
+      <c r="M123" s="1">
+        <f t="shared" ca="1" si="13"/>
+        <v>0.84810126582278478</v>
+      </c>
+      <c r="N123" s="1">
+        <f t="shared" ca="1" si="13"/>
+        <v>0.27848101265822783</v>
+      </c>
+      <c r="O123" s="1">
+        <f t="shared" ca="1" si="13"/>
+        <v>0.12658227848101264</v>
+      </c>
+      <c r="P123" s="1">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Q123" s="1">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>4.7</v>
       </c>
@@ -4575,8 +8099,8 @@
         <v>1</v>
       </c>
       <c r="H124">
-        <f ca="1">RAND()</f>
-        <v>0.72428841721655957</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>0.67802996004966809</v>
       </c>
       <c r="I124" s="6">
         <v>30</v>
@@ -4584,8 +8108,36 @@
       <c r="J124" s="7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K124" s="1">
+        <f t="shared" ca="1" si="13"/>
+        <v>0.59493670886075944</v>
+      </c>
+      <c r="L124" s="1">
+        <f t="shared" ca="1" si="13"/>
+        <v>0.4050632911392405</v>
+      </c>
+      <c r="M124" s="1">
+        <f t="shared" ca="1" si="13"/>
+        <v>0.20253164556962025</v>
+      </c>
+      <c r="N124" s="1">
+        <f t="shared" ca="1" si="13"/>
+        <v>2.5316455696202531E-2</v>
+      </c>
+      <c r="O124" s="1">
+        <f t="shared" ca="1" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="P124" s="1">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Q124" s="1">
+        <f t="shared" ca="1" si="10"/>
+        <v>0.12658227848101264</v>
+      </c>
+    </row>
+    <row r="125" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>6.1</v>
       </c>
@@ -4608,8 +8160,8 @@
         <v>0</v>
       </c>
       <c r="H125">
-        <f ca="1">RAND()</f>
-        <v>7.7960224956698521E-2</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>0.5822498244601646</v>
       </c>
       <c r="I125" s="6">
         <v>64</v>
@@ -4617,8 +8169,36 @@
       <c r="J125" s="7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K125" s="1">
+        <f t="shared" ca="1" si="13"/>
+        <v>0.77215189873417711</v>
+      </c>
+      <c r="L125" s="1">
+        <f t="shared" ca="1" si="13"/>
+        <v>0.36708860759493667</v>
+      </c>
+      <c r="M125" s="1">
+        <f t="shared" ca="1" si="13"/>
+        <v>0.59493670886075944</v>
+      </c>
+      <c r="N125" s="1">
+        <f t="shared" ca="1" si="13"/>
+        <v>0.17721518987341769</v>
+      </c>
+      <c r="O125" s="1">
+        <f t="shared" ca="1" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="P125" s="1">
+        <f t="shared" ca="1" si="11"/>
+        <v>0.12658227848101264</v>
+      </c>
+      <c r="Q125" s="1">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>6.6</v>
       </c>
@@ -4641,8 +8221,8 @@
         <v>0</v>
       </c>
       <c r="H126">
-        <f ca="1">RAND()</f>
-        <v>0.40059837240650054</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>2.8319284308436332E-2</v>
       </c>
       <c r="I126" s="6">
         <v>59</v>
@@ -4650,8 +8230,36 @@
       <c r="J126" s="7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K126" s="1">
+        <f t="shared" ca="1" si="13"/>
+        <v>0.83544303797468344</v>
+      </c>
+      <c r="L126" s="1">
+        <f t="shared" ca="1" si="13"/>
+        <v>0.36708860759493667</v>
+      </c>
+      <c r="M126" s="1">
+        <f t="shared" ca="1" si="13"/>
+        <v>0.58227848101265811</v>
+      </c>
+      <c r="N126" s="1">
+        <f t="shared" ca="1" si="13"/>
+        <v>0.16455696202531644</v>
+      </c>
+      <c r="O126" s="1">
+        <f t="shared" ca="1" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="P126" s="1">
+        <f t="shared" ca="1" si="11"/>
+        <v>0.12658227848101264</v>
+      </c>
+      <c r="Q126" s="1">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>5.6</v>
       </c>
@@ -4674,8 +8282,8 @@
         <v>0</v>
       </c>
       <c r="H127">
-        <f ca="1">RAND()</f>
-        <v>0.23880223345409801</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>0.30565833394549946</v>
       </c>
       <c r="I127" s="6">
         <v>89</v>
@@ -4683,8 +8291,36 @@
       <c r="J127" s="7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K127" s="1">
+        <f t="shared" ca="1" si="13"/>
+        <v>0.70886075949367078</v>
+      </c>
+      <c r="L127" s="1">
+        <f t="shared" ca="1" si="13"/>
+        <v>0.37974683544303794</v>
+      </c>
+      <c r="M127" s="1">
+        <f t="shared" ca="1" si="13"/>
+        <v>0.51898734177215178</v>
+      </c>
+      <c r="N127" s="1">
+        <f t="shared" ca="1" si="13"/>
+        <v>0.16455696202531644</v>
+      </c>
+      <c r="O127" s="1">
+        <f t="shared" ca="1" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="P127" s="1">
+        <f t="shared" ca="1" si="11"/>
+        <v>0.12658227848101264</v>
+      </c>
+      <c r="Q127" s="1">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>6</v>
       </c>
@@ -4707,8 +8343,8 @@
         <v>0</v>
       </c>
       <c r="H128">
-        <f ca="1">RAND()</f>
-        <v>0.70722913244599628</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>1.6720722967156765E-2</v>
       </c>
       <c r="I128" s="6">
         <v>63</v>
@@ -4716,8 +8352,36 @@
       <c r="J128" s="7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K128" s="1">
+        <f t="shared" ca="1" si="13"/>
+        <v>0.75949367088607589</v>
+      </c>
+      <c r="L128" s="1">
+        <f t="shared" ca="1" si="13"/>
+        <v>0.27848101265822783</v>
+      </c>
+      <c r="M128" s="1">
+        <f t="shared" ca="1" si="13"/>
+        <v>0.50632911392405056</v>
+      </c>
+      <c r="N128" s="1">
+        <f t="shared" ca="1" si="13"/>
+        <v>0.12658227848101264</v>
+      </c>
+      <c r="O128" s="1">
+        <f t="shared" ca="1" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="P128" s="1">
+        <f t="shared" ca="1" si="11"/>
+        <v>0.12658227848101264</v>
+      </c>
+      <c r="Q128" s="1">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>5.0999999999999996</v>
       </c>
@@ -4740,8 +8404,8 @@
         <v>1</v>
       </c>
       <c r="H129">
-        <f ca="1">RAND()</f>
-        <v>0.71529524386651178</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>0.53069273639092041</v>
       </c>
       <c r="I129" s="6">
         <v>18</v>
@@ -4749,8 +8413,36 @@
       <c r="J129" s="7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K129" s="1">
+        <f t="shared" ca="1" si="13"/>
+        <v>0.64556962025316444</v>
+      </c>
+      <c r="L129" s="1">
+        <f t="shared" ca="1" si="13"/>
+        <v>0.44303797468354428</v>
+      </c>
+      <c r="M129" s="1">
+        <f t="shared" ca="1" si="13"/>
+        <v>0.17721518987341769</v>
+      </c>
+      <c r="N129" s="1">
+        <f t="shared" ca="1" si="13"/>
+        <v>3.7974683544303792E-2</v>
+      </c>
+      <c r="O129" s="1">
+        <f t="shared" ca="1" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="P129" s="1">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Q129" s="1">
+        <f t="shared" ca="1" si="10"/>
+        <v>0.12658227848101264</v>
+      </c>
+    </row>
+    <row r="130" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>5.6</v>
       </c>
@@ -4773,8 +8465,8 @@
         <v>0</v>
       </c>
       <c r="H130">
-        <f ca="1">RAND()</f>
-        <v>0.24068371827323587</v>
+        <f t="shared" ref="H130:H151" ca="1" si="14">RAND()</f>
+        <v>0.55269110233119134</v>
       </c>
       <c r="I130" s="6">
         <v>95</v>
@@ -4782,8 +8474,36 @@
       <c r="J130" s="7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K130" s="1">
+        <f t="shared" ca="1" si="13"/>
+        <v>0.70886075949367078</v>
+      </c>
+      <c r="L130" s="1">
+        <f t="shared" ca="1" si="13"/>
+        <v>0.34177215189873417</v>
+      </c>
+      <c r="M130" s="1">
+        <f t="shared" ca="1" si="13"/>
+        <v>0.53164556962025311</v>
+      </c>
+      <c r="N130" s="1">
+        <f t="shared" ca="1" si="13"/>
+        <v>0.16455696202531644</v>
+      </c>
+      <c r="O130" s="1">
+        <f t="shared" ca="1" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="P130" s="1">
+        <f t="shared" ca="1" si="11"/>
+        <v>0.12658227848101264</v>
+      </c>
+      <c r="Q130" s="1">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>6.1</v>
       </c>
@@ -4806,8 +8526,8 @@
         <v>0</v>
       </c>
       <c r="H131">
-        <f ca="1">RAND()</f>
-        <v>7.7604184753644501E-2</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>1.6325681867560227E-2</v>
       </c>
       <c r="I131" s="6">
         <v>72</v>
@@ -4815,8 +8535,36 @@
       <c r="J131" s="7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K131" s="1">
+        <f t="shared" ca="1" si="13"/>
+        <v>0.77215189873417711</v>
+      </c>
+      <c r="L131" s="1">
+        <f t="shared" ca="1" si="13"/>
+        <v>0.35443037974683539</v>
+      </c>
+      <c r="M131" s="1">
+        <f t="shared" ca="1" si="13"/>
+        <v>0.50632911392405056</v>
+      </c>
+      <c r="N131" s="1">
+        <f t="shared" ca="1" si="13"/>
+        <v>0.16455696202531644</v>
+      </c>
+      <c r="O131" s="1">
+        <f t="shared" ca="1" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="P131" s="1">
+        <f t="shared" ca="1" si="11"/>
+        <v>0.12658227848101264</v>
+      </c>
+      <c r="Q131" s="1">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>6.5</v>
       </c>
@@ -4839,8 +8587,8 @@
         <v>0</v>
       </c>
       <c r="H132">
-        <f ca="1">RAND()</f>
-        <v>0.33474450447452908</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>0.58292620107354165</v>
       </c>
       <c r="I132" s="6">
         <v>117</v>
@@ -4848,8 +8596,36 @@
       <c r="J132" s="7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K132" s="1">
+        <f t="shared" ca="1" si="13"/>
+        <v>0.82278481012658222</v>
+      </c>
+      <c r="L132" s="1">
+        <f t="shared" ca="1" si="13"/>
+        <v>0.37974683544303794</v>
+      </c>
+      <c r="M132" s="1">
+        <f t="shared" ca="1" si="13"/>
+        <v>0.69620253164556956</v>
+      </c>
+      <c r="N132" s="1">
+        <f t="shared" ca="1" si="13"/>
+        <v>0.22784810126582278</v>
+      </c>
+      <c r="O132" s="1">
+        <f t="shared" ca="1" si="13"/>
+        <v>0.12658227848101264</v>
+      </c>
+      <c r="P132" s="1">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Q132" s="1">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>6.8</v>
       </c>
@@ -4872,8 +8648,8 @@
         <v>0</v>
       </c>
       <c r="H133">
-        <f ca="1">RAND()</f>
-        <v>0.91296090369993854</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>0.94049853543464168</v>
       </c>
       <c r="I133" s="6">
         <v>113</v>
@@ -4881,8 +8657,36 @@
       <c r="J133" s="7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K133" s="1">
+        <f t="shared" ca="1" si="13"/>
+        <v>0.860759493670886</v>
+      </c>
+      <c r="L133" s="1">
+        <f t="shared" ca="1" si="13"/>
+        <v>0.37974683544303794</v>
+      </c>
+      <c r="M133" s="1">
+        <f t="shared" ca="1" si="13"/>
+        <v>0.69620253164556956</v>
+      </c>
+      <c r="N133" s="1">
+        <f t="shared" ca="1" si="13"/>
+        <v>0.26582278481012656</v>
+      </c>
+      <c r="O133" s="1">
+        <f t="shared" ca="1" si="13"/>
+        <v>0.12658227848101264</v>
+      </c>
+      <c r="P133" s="1">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Q133" s="1">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>6.1</v>
       </c>
@@ -4905,8 +8709,8 @@
         <v>0</v>
       </c>
       <c r="H134">
-        <f ca="1">RAND()</f>
-        <v>0.31947758913330737</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>0.89159271025325759</v>
       </c>
       <c r="I134" s="6">
         <v>92</v>
@@ -4914,8 +8718,36 @@
       <c r="J134" s="7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K134" s="1">
+        <f t="shared" ca="1" si="13"/>
+        <v>0.77215189873417711</v>
+      </c>
+      <c r="L134" s="1">
+        <f t="shared" ca="1" si="13"/>
+        <v>0.37974683544303794</v>
+      </c>
+      <c r="M134" s="1">
+        <f t="shared" ca="1" si="13"/>
+        <v>0.58227848101265811</v>
+      </c>
+      <c r="N134" s="1">
+        <f t="shared" ca="1" si="13"/>
+        <v>0.17721518987341769</v>
+      </c>
+      <c r="O134" s="1">
+        <f t="shared" ca="1" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="P134" s="1">
+        <f t="shared" ca="1" si="11"/>
+        <v>0.12658227848101264</v>
+      </c>
+      <c r="Q134" s="1">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>7.9</v>
       </c>
@@ -4938,8 +8770,8 @@
         <v>0</v>
       </c>
       <c r="H135">
-        <f ca="1">RAND()</f>
-        <v>0.76796475587160262</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>7.1742325229861459E-2</v>
       </c>
       <c r="I135" s="6">
         <v>132</v>
@@ -4947,8 +8779,36 @@
       <c r="J135" s="7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K135" s="1">
+        <f t="shared" ca="1" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="L135" s="1">
+        <f t="shared" ca="1" si="13"/>
+        <v>0.48101265822784806</v>
+      </c>
+      <c r="M135" s="1">
+        <f t="shared" ca="1" si="13"/>
+        <v>0.810126582278481</v>
+      </c>
+      <c r="N135" s="1">
+        <f t="shared" ca="1" si="13"/>
+        <v>0.25316455696202528</v>
+      </c>
+      <c r="O135" s="1">
+        <f t="shared" ca="1" si="13"/>
+        <v>0.12658227848101264</v>
+      </c>
+      <c r="P135" s="1">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Q135" s="1">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>5.2</v>
       </c>
@@ -4971,8 +8831,8 @@
         <v>1</v>
       </c>
       <c r="H136">
-        <f ca="1">RAND()</f>
-        <v>0.18861140921964381</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>0.51100382830613711</v>
       </c>
       <c r="I136" s="6">
         <v>33</v>
@@ -4980,8 +8840,36 @@
       <c r="J136" s="7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K136" s="1">
+        <f t="shared" ca="1" si="13"/>
+        <v>0.65822784810126578</v>
+      </c>
+      <c r="L136" s="1">
+        <f t="shared" ca="1" si="13"/>
+        <v>0.51898734177215178</v>
+      </c>
+      <c r="M136" s="1">
+        <f t="shared" ca="1" si="13"/>
+        <v>0.18987341772151897</v>
+      </c>
+      <c r="N136" s="1">
+        <f t="shared" ca="1" si="13"/>
+        <v>1.2658227848101266E-2</v>
+      </c>
+      <c r="O136" s="1">
+        <f t="shared" ca="1" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="P136" s="1">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Q136" s="1">
+        <f t="shared" ca="1" si="11"/>
+        <v>0.12658227848101264</v>
+      </c>
+    </row>
+    <row r="137" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>4.4000000000000004</v>
       </c>
@@ -5004,8 +8892,8 @@
         <v>1</v>
       </c>
       <c r="H137">
-        <f ca="1">RAND()</f>
-        <v>0.62919355403881627</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>0.46491913719434985</v>
       </c>
       <c r="I137" s="6">
         <v>43</v>
@@ -5013,8 +8901,36 @@
       <c r="J137" s="7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K137" s="1">
+        <f t="shared" ca="1" si="13"/>
+        <v>0.55696202531645567</v>
+      </c>
+      <c r="L137" s="1">
+        <f t="shared" ca="1" si="13"/>
+        <v>0.4050632911392405</v>
+      </c>
+      <c r="M137" s="1">
+        <f t="shared" ca="1" si="13"/>
+        <v>0.16455696202531644</v>
+      </c>
+      <c r="N137" s="1">
+        <f t="shared" ca="1" si="13"/>
+        <v>2.5316455696202531E-2</v>
+      </c>
+      <c r="O137" s="1">
+        <f t="shared" ref="O137:O151" ca="1" si="15">(E137-MIN($A:$H))/(MAX($A:$H)-MIN($A:$H))</f>
+        <v>0</v>
+      </c>
+      <c r="P137" s="1">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Q137" s="1">
+        <f t="shared" ca="1" si="11"/>
+        <v>0.12658227848101264</v>
+      </c>
+    </row>
+    <row r="138" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>6.3</v>
       </c>
@@ -5037,8 +8953,8 @@
         <v>0</v>
       </c>
       <c r="H138">
-        <f ca="1">RAND()</f>
-        <v>0.9319641274883691</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>0.60995088558270438</v>
       </c>
       <c r="I138" s="6">
         <v>134</v>
@@ -5046,8 +8962,36 @@
       <c r="J138" s="7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K138" s="1">
+        <f t="shared" ca="1" si="13"/>
+        <v>0.79746835443037967</v>
+      </c>
+      <c r="L138" s="1">
+        <f t="shared" ca="1" si="13"/>
+        <v>0.35443037974683539</v>
+      </c>
+      <c r="M138" s="1">
+        <f t="shared" ca="1" si="13"/>
+        <v>0.64556962025316444</v>
+      </c>
+      <c r="N138" s="1">
+        <f t="shared" ca="1" si="13"/>
+        <v>0.18987341772151897</v>
+      </c>
+      <c r="O138" s="1">
+        <f t="shared" ca="1" si="15"/>
+        <v>0.12658227848101264</v>
+      </c>
+      <c r="P138" s="1">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Q138" s="1">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>4.3</v>
       </c>
@@ -5070,8 +9014,8 @@
         <v>1</v>
       </c>
       <c r="H139">
-        <f ca="1">RAND()</f>
-        <v>0.41886479636694141</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>0.50492909996413526</v>
       </c>
       <c r="I139" s="6">
         <v>14</v>
@@ -5079,8 +9023,36 @@
       <c r="J139" s="7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K139" s="1">
+        <f t="shared" ca="1" si="13"/>
+        <v>0.54430379746835433</v>
+      </c>
+      <c r="L139" s="1">
+        <f t="shared" ca="1" si="13"/>
+        <v>0.37974683544303794</v>
+      </c>
+      <c r="M139" s="1">
+        <f t="shared" ca="1" si="13"/>
+        <v>0.13924050632911392</v>
+      </c>
+      <c r="N139" s="1">
+        <f t="shared" ca="1" si="13"/>
+        <v>1.2658227848101266E-2</v>
+      </c>
+      <c r="O139" s="1">
+        <f t="shared" ca="1" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="P139" s="1">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Q139" s="1">
+        <f t="shared" ca="1" si="11"/>
+        <v>0.12658227848101264</v>
+      </c>
+    </row>
+    <row r="140" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>7.4</v>
       </c>
@@ -5103,8 +9075,8 @@
         <v>0</v>
       </c>
       <c r="H140">
-        <f ca="1">RAND()</f>
-        <v>0.34012743234639187</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>0.10022267692150866</v>
       </c>
       <c r="I140" s="6">
         <v>131</v>
@@ -5112,8 +9084,36 @@
       <c r="J140" s="7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K140" s="1">
+        <f t="shared" ca="1" si="13"/>
+        <v>0.93670886075949367</v>
+      </c>
+      <c r="L140" s="1">
+        <f t="shared" ca="1" si="13"/>
+        <v>0.35443037974683539</v>
+      </c>
+      <c r="M140" s="1">
+        <f t="shared" ca="1" si="13"/>
+        <v>0.77215189873417711</v>
+      </c>
+      <c r="N140" s="1">
+        <f t="shared" ca="1" si="13"/>
+        <v>0.24050632911392403</v>
+      </c>
+      <c r="O140" s="1">
+        <f t="shared" ca="1" si="15"/>
+        <v>0.12658227848101264</v>
+      </c>
+      <c r="P140" s="1">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Q140" s="1">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>4.5999999999999996</v>
       </c>
@@ -5136,8 +9136,8 @@
         <v>1</v>
       </c>
       <c r="H141">
-        <f ca="1">RAND()</f>
-        <v>0.62036467909591364</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>0.3092392494372298</v>
       </c>
       <c r="I141" s="6">
         <v>4</v>
@@ -5145,8 +9145,36 @@
       <c r="J141" s="7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K141" s="1">
+        <f t="shared" ca="1" si="13"/>
+        <v>0.58227848101265811</v>
+      </c>
+      <c r="L141" s="1">
+        <f t="shared" ca="1" si="13"/>
+        <v>0.39240506329113922</v>
+      </c>
+      <c r="M141" s="1">
+        <f t="shared" ca="1" si="13"/>
+        <v>0.18987341772151897</v>
+      </c>
+      <c r="N141" s="1">
+        <f t="shared" ca="1" si="13"/>
+        <v>2.5316455696202531E-2</v>
+      </c>
+      <c r="O141" s="1">
+        <f t="shared" ca="1" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="P141" s="1">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Q141" s="1">
+        <f t="shared" ca="1" si="11"/>
+        <v>0.12658227848101264</v>
+      </c>
+    </row>
+    <row r="142" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>6.1</v>
       </c>
@@ -5169,8 +9197,8 @@
         <v>0</v>
       </c>
       <c r="H142">
-        <f ca="1">RAND()</f>
-        <v>0.90708624288883366</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>0.57536448556139663</v>
       </c>
       <c r="I142" s="6">
         <v>74</v>
@@ -5178,8 +9206,36 @@
       <c r="J142" s="7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K142" s="1">
+        <f t="shared" ca="1" si="13"/>
+        <v>0.77215189873417711</v>
+      </c>
+      <c r="L142" s="1">
+        <f t="shared" ca="1" si="13"/>
+        <v>0.35443037974683539</v>
+      </c>
+      <c r="M142" s="1">
+        <f t="shared" ca="1" si="13"/>
+        <v>0.59493670886075944</v>
+      </c>
+      <c r="N142" s="1">
+        <f t="shared" ca="1" si="13"/>
+        <v>0.15189873417721517</v>
+      </c>
+      <c r="O142" s="1">
+        <f t="shared" ca="1" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="P142" s="1">
+        <f t="shared" ca="1" si="11"/>
+        <v>0.12658227848101264</v>
+      </c>
+      <c r="Q142" s="1">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>5.8</v>
       </c>
@@ -5202,8 +9258,8 @@
         <v>0</v>
       </c>
       <c r="H143">
-        <f ca="1">RAND()</f>
-        <v>0.25892540093724081</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>0.60084310529454266</v>
       </c>
       <c r="I143" s="6">
         <v>83</v>
@@ -5211,8 +9267,36 @@
       <c r="J143" s="7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K143" s="1">
+        <f t="shared" ca="1" si="13"/>
+        <v>0.73417721518987333</v>
+      </c>
+      <c r="L143" s="1">
+        <f t="shared" ca="1" si="13"/>
+        <v>0.34177215189873417</v>
+      </c>
+      <c r="M143" s="1">
+        <f t="shared" ca="1" si="13"/>
+        <v>0.49367088607594933</v>
+      </c>
+      <c r="N143" s="1">
+        <f t="shared" ca="1" si="13"/>
+        <v>0.15189873417721517</v>
+      </c>
+      <c r="O143" s="1">
+        <f t="shared" ca="1" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="P143" s="1">
+        <f t="shared" ca="1" si="11"/>
+        <v>0.12658227848101264</v>
+      </c>
+      <c r="Q143" s="1">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>7.3</v>
       </c>
@@ -5235,8 +9319,8 @@
         <v>0</v>
       </c>
       <c r="H144">
-        <f ca="1">RAND()</f>
-        <v>0.83786999401746831</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>9.5100239533271291E-2</v>
       </c>
       <c r="I144" s="6">
         <v>108</v>
@@ -5244,8 +9328,36 @@
       <c r="J144" s="7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K144" s="1">
+        <f t="shared" ca="1" si="13"/>
+        <v>0.92405063291139233</v>
+      </c>
+      <c r="L144" s="1">
+        <f t="shared" ca="1" si="13"/>
+        <v>0.36708860759493667</v>
+      </c>
+      <c r="M144" s="1">
+        <f t="shared" ca="1" si="13"/>
+        <v>0.79746835443037967</v>
+      </c>
+      <c r="N144" s="1">
+        <f t="shared" ca="1" si="13"/>
+        <v>0.22784810126582278</v>
+      </c>
+      <c r="O144" s="1">
+        <f t="shared" ca="1" si="15"/>
+        <v>0.12658227848101264</v>
+      </c>
+      <c r="P144" s="1">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Q144" s="1">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>5.0999999999999996</v>
       </c>
@@ -5268,8 +9380,8 @@
         <v>1</v>
       </c>
       <c r="H145">
-        <f ca="1">RAND()</f>
-        <v>0.86066204421774362</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>0.84582375535093457</v>
       </c>
       <c r="I145" s="6">
         <v>45</v>
@@ -5277,8 +9389,36 @@
       <c r="J145" s="7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K145" s="1">
+        <f t="shared" ca="1" si="13"/>
+        <v>0.64556962025316444</v>
+      </c>
+      <c r="L145" s="1">
+        <f t="shared" ca="1" si="13"/>
+        <v>0.48101265822784806</v>
+      </c>
+      <c r="M145" s="1">
+        <f t="shared" ca="1" si="13"/>
+        <v>0.24050632911392403</v>
+      </c>
+      <c r="N145" s="1">
+        <f t="shared" ca="1" si="13"/>
+        <v>5.0632911392405063E-2</v>
+      </c>
+      <c r="O145" s="1">
+        <f t="shared" ca="1" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="P145" s="1">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Q145" s="1">
+        <f t="shared" ca="1" si="11"/>
+        <v>0.12658227848101264</v>
+      </c>
+    </row>
+    <row r="146" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>5.5</v>
       </c>
@@ -5301,8 +9441,8 @@
         <v>1</v>
       </c>
       <c r="H146">
-        <f ca="1">RAND()</f>
-        <v>0.72773373427427579</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>0.37150352175177104</v>
       </c>
       <c r="I146" s="6">
         <v>34</v>
@@ -5310,8 +9450,36 @@
       <c r="J146" s="7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K146" s="1">
+        <f t="shared" ca="1" si="13"/>
+        <v>0.69620253164556956</v>
+      </c>
+      <c r="L146" s="1">
+        <f t="shared" ca="1" si="13"/>
+        <v>0.53164556962025311</v>
+      </c>
+      <c r="M146" s="1">
+        <f t="shared" ca="1" si="13"/>
+        <v>0.17721518987341769</v>
+      </c>
+      <c r="N146" s="1">
+        <f t="shared" ca="1" si="13"/>
+        <v>2.5316455696202531E-2</v>
+      </c>
+      <c r="O146" s="1">
+        <f t="shared" ca="1" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="P146" s="1">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Q146" s="1">
+        <f t="shared" ca="1" si="11"/>
+        <v>0.12658227848101264</v>
+      </c>
+    </row>
+    <row r="147" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>6.4</v>
       </c>
@@ -5334,8 +9502,8 @@
         <v>0</v>
       </c>
       <c r="H147">
-        <f ca="1">RAND()</f>
-        <v>0.15320231574683452</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>5.8390990500480355E-2</v>
       </c>
       <c r="I147" s="6">
         <v>133</v>
@@ -5343,8 +9511,36 @@
       <c r="J147" s="7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K147" s="1">
+        <f t="shared" ca="1" si="13"/>
+        <v>0.810126582278481</v>
+      </c>
+      <c r="L147" s="1">
+        <f t="shared" ca="1" si="13"/>
+        <v>0.35443037974683539</v>
+      </c>
+      <c r="M147" s="1">
+        <f t="shared" ca="1" si="13"/>
+        <v>0.70886075949367078</v>
+      </c>
+      <c r="N147" s="1">
+        <f t="shared" ca="1" si="13"/>
+        <v>0.27848101265822783</v>
+      </c>
+      <c r="O147" s="1">
+        <f t="shared" ca="1" si="15"/>
+        <v>0.12658227848101264</v>
+      </c>
+      <c r="P147" s="1">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Q147" s="1">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>5.6</v>
       </c>
@@ -5367,8 +9563,8 @@
         <v>0</v>
       </c>
       <c r="H148">
-        <f ca="1">RAND()</f>
-        <v>0.9373008334806715</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>0.18228857885894478</v>
       </c>
       <c r="I148" s="6">
         <v>67</v>
@@ -5376,8 +9572,36 @@
       <c r="J148" s="7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K148" s="1">
+        <f t="shared" ca="1" si="13"/>
+        <v>0.70886075949367078</v>
+      </c>
+      <c r="L148" s="1">
+        <f t="shared" ca="1" si="13"/>
+        <v>0.37974683544303794</v>
+      </c>
+      <c r="M148" s="1">
+        <f t="shared" ca="1" si="13"/>
+        <v>0.56962025316455689</v>
+      </c>
+      <c r="N148" s="1">
+        <f t="shared" ca="1" si="13"/>
+        <v>0.18987341772151897</v>
+      </c>
+      <c r="O148" s="1">
+        <f t="shared" ca="1" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="P148" s="1">
+        <f t="shared" ca="1" si="11"/>
+        <v>0.12658227848101264</v>
+      </c>
+      <c r="Q148" s="1">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>6.7</v>
       </c>
@@ -5400,8 +9624,8 @@
         <v>0</v>
       </c>
       <c r="H149">
-        <f ca="1">RAND()</f>
-        <v>0.91431668246447761</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>0.77829456057703461</v>
       </c>
       <c r="I149" s="6">
         <v>125</v>
@@ -5409,8 +9633,36 @@
       <c r="J149" s="7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K149" s="1">
+        <f t="shared" ca="1" si="13"/>
+        <v>0.84810126582278478</v>
+      </c>
+      <c r="L149" s="1">
+        <f t="shared" ca="1" si="13"/>
+        <v>0.41772151898734172</v>
+      </c>
+      <c r="M149" s="1">
+        <f t="shared" ca="1" si="13"/>
+        <v>0.72151898734177211</v>
+      </c>
+      <c r="N149" s="1">
+        <f t="shared" ca="1" si="13"/>
+        <v>0.26582278481012656</v>
+      </c>
+      <c r="O149" s="1">
+        <f t="shared" ca="1" si="15"/>
+        <v>0.12658227848101264</v>
+      </c>
+      <c r="P149" s="1">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Q149" s="1">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>4.9000000000000004</v>
       </c>
@@ -5433,8 +9685,8 @@
         <v>1</v>
       </c>
       <c r="H150">
-        <f ca="1">RAND()</f>
-        <v>0.69374547358769867</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>0.93877239456197015</v>
       </c>
       <c r="I150" s="6">
         <v>38</v>
@@ -5442,8 +9694,36 @@
       <c r="J150" s="7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K150" s="1">
+        <f t="shared" ca="1" si="13"/>
+        <v>0.620253164556962</v>
+      </c>
+      <c r="L150" s="1">
+        <f t="shared" ca="1" si="13"/>
+        <v>0.39240506329113922</v>
+      </c>
+      <c r="M150" s="1">
+        <f t="shared" ca="1" si="13"/>
+        <v>0.18987341772151897</v>
+      </c>
+      <c r="N150" s="1">
+        <f t="shared" ca="1" si="13"/>
+        <v>1.2658227848101266E-2</v>
+      </c>
+      <c r="O150" s="1">
+        <f t="shared" ca="1" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="P150" s="1">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Q150" s="1">
+        <f t="shared" ca="1" si="11"/>
+        <v>0.12658227848101264</v>
+      </c>
+    </row>
+    <row r="151" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>7.6</v>
       </c>
@@ -5466,14 +9746,42 @@
         <v>0</v>
       </c>
       <c r="H151">
-        <f ca="1">RAND()</f>
-        <v>0.44989004310430125</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>0.21441155031359094</v>
       </c>
       <c r="I151" s="6">
         <v>106</v>
       </c>
       <c r="J151" s="7" t="s">
         <v>11</v>
+      </c>
+      <c r="K151" s="1">
+        <f t="shared" ca="1" si="13"/>
+        <v>0.96202531645569611</v>
+      </c>
+      <c r="L151" s="1">
+        <f t="shared" ca="1" si="13"/>
+        <v>0.37974683544303794</v>
+      </c>
+      <c r="M151" s="1">
+        <f t="shared" ca="1" si="13"/>
+        <v>0.83544303797468344</v>
+      </c>
+      <c r="N151" s="1">
+        <f t="shared" ca="1" si="13"/>
+        <v>0.26582278481012656</v>
+      </c>
+      <c r="O151" s="1">
+        <f t="shared" ca="1" si="15"/>
+        <v>0.12658227848101264</v>
+      </c>
+      <c r="P151" s="1">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Q151" s="1">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
